--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1004,7 +1004,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="14" t="n">
-        <v>44317.95229018782</v>
+        <v>44317.95229018519</v>
       </c>
       <c r="C13" s="15" t="n">
         <v>57</v>
@@ -1031,43 +1031,407 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="5" t="n"/>
+      <c r="A14" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="n">
+        <v>44317.96513059028</v>
+      </c>
+      <c r="C14" s="15" t="n">
+        <v>59</v>
+      </c>
+      <c r="D14" s="16" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="E14" s="17" t="n">
+        <v>319</v>
+      </c>
+      <c r="F14" s="18" t="n">
+        <v>297</v>
+      </c>
+      <c r="G14" s="19" t="n">
+        <v>22</v>
+      </c>
+      <c r="H14" s="18" t="n">
+        <v>43</v>
+      </c>
+      <c r="I14" s="19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
-      <c r="B15" s="5" t="n"/>
+      <c r="A15" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="n">
+        <v>44318.50556368056</v>
+      </c>
+      <c r="C15" s="15" t="n">
+        <v>62</v>
+      </c>
+      <c r="D15" s="16" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="E15" s="17" t="n">
+        <v>321</v>
+      </c>
+      <c r="F15" s="18" t="n">
+        <v>308</v>
+      </c>
+      <c r="G15" s="19" t="n">
+        <v>13</v>
+      </c>
+      <c r="H15" s="18" t="n">
+        <v>43</v>
+      </c>
+      <c r="I15" s="19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
-      <c r="B16" s="5" t="n"/>
+      <c r="A16" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="n">
+        <v>44318.5065725926</v>
+      </c>
+      <c r="C16" s="15" t="n">
+        <v>58</v>
+      </c>
+      <c r="D16" s="16" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="E16" s="17" t="n">
+        <v>296</v>
+      </c>
+      <c r="F16" s="18" t="n">
+        <v>290</v>
+      </c>
+      <c r="G16" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" s="18" t="n">
+        <v>39</v>
+      </c>
+      <c r="I16" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
-      <c r="B17" s="5" t="n"/>
+      <c r="A17" s="13" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14" t="n">
+        <v>44318.5073896875</v>
+      </c>
+      <c r="C17" s="15" t="n">
+        <v>60</v>
+      </c>
+      <c r="D17" s="16" t="inlineStr">
+        <is>
+          <t>92.9</t>
+        </is>
+      </c>
+      <c r="E17" s="17" t="n">
+        <v>315</v>
+      </c>
+      <c r="F17" s="18" t="n">
+        <v>301</v>
+      </c>
+      <c r="G17" s="19" t="n">
+        <v>14</v>
+      </c>
+      <c r="H17" s="18" t="n">
+        <v>43</v>
+      </c>
+      <c r="I17" s="19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
-      <c r="B18" s="5" t="n"/>
+      <c r="A18" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="n">
+        <v>44318.51444082176</v>
+      </c>
+      <c r="C18" s="15" t="n">
+        <v>70</v>
+      </c>
+      <c r="D18" s="16" t="inlineStr">
+        <is>
+          <t>95.88</t>
+        </is>
+      </c>
+      <c r="E18" s="17" t="n">
+        <v>349</v>
+      </c>
+      <c r="F18" s="18" t="n">
+        <v>349</v>
+      </c>
+      <c r="G18" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="18" t="n">
+        <v>48</v>
+      </c>
+      <c r="I18" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
-      <c r="B19" s="5" t="n"/>
+      <c r="A19" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14" t="n">
+        <v>44318.54152947917</v>
+      </c>
+      <c r="C19" s="15" t="n">
+        <v>69</v>
+      </c>
+      <c r="D19" s="16" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="E19" s="17" t="n">
+        <v>358</v>
+      </c>
+      <c r="F19" s="18" t="n">
+        <v>343</v>
+      </c>
+      <c r="G19" s="19" t="n">
+        <v>15</v>
+      </c>
+      <c r="H19" s="18" t="n">
+        <v>43</v>
+      </c>
+      <c r="I19" s="19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
-      <c r="B20" s="5" t="n"/>
+      <c r="A20" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14" t="n">
+        <v>44318.54276363426</v>
+      </c>
+      <c r="C20" s="15" t="n">
+        <v>68</v>
+      </c>
+      <c r="D20" s="16" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="E20" s="17" t="n">
+        <v>347</v>
+      </c>
+      <c r="F20" s="18" t="n">
+        <v>339</v>
+      </c>
+      <c r="G20" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="H20" s="18" t="n">
+        <v>47</v>
+      </c>
+      <c r="I20" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
-      <c r="B21" s="5" t="n"/>
+      <c r="A21" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14" t="n">
+        <v>44318.54390402778</v>
+      </c>
+      <c r="C21" s="15" t="n">
+        <v>62</v>
+      </c>
+      <c r="D21" s="16" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="E21" s="17" t="n">
+        <v>316</v>
+      </c>
+      <c r="F21" s="18" t="n">
+        <v>308</v>
+      </c>
+      <c r="G21" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="H21" s="18" t="n">
+        <v>39</v>
+      </c>
+      <c r="I21" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
-      <c r="B22" s="5" t="n"/>
+      <c r="A22" s="13" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14" t="n">
+        <v>44318.54469693287</v>
+      </c>
+      <c r="C22" s="15" t="n">
+        <v>70</v>
+      </c>
+      <c r="D22" s="16" t="inlineStr">
+        <is>
+          <t>96.16</t>
+        </is>
+      </c>
+      <c r="E22" s="17" t="n">
+        <v>359</v>
+      </c>
+      <c r="F22" s="18" t="n">
+        <v>351</v>
+      </c>
+      <c r="G22" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="H22" s="18" t="n">
+        <v>51</v>
+      </c>
+      <c r="I22" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
-      <c r="B23" s="5" t="n"/>
+      <c r="A23" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14" t="n">
+        <v>44318.68093922453</v>
+      </c>
+      <c r="C23" s="15" t="n">
+        <v>65</v>
+      </c>
+      <c r="D23" s="16" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="E23" s="17" t="n">
+        <v>343</v>
+      </c>
+      <c r="F23" s="18" t="n">
+        <v>323</v>
+      </c>
+      <c r="G23" s="19" t="n">
+        <v>20</v>
+      </c>
+      <c r="H23" s="18" t="n">
+        <v>46</v>
+      </c>
+      <c r="I23" s="19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
-      <c r="B24" s="5" t="n"/>
+      <c r="A24" s="13" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14" t="n">
+        <v>44318.68762141203</v>
+      </c>
+      <c r="C24" s="15" t="n">
+        <v>70</v>
+      </c>
+      <c r="D24" s="16" t="inlineStr">
+        <is>
+          <t>95.6</t>
+        </is>
+      </c>
+      <c r="E24" s="17" t="n">
+        <v>352</v>
+      </c>
+      <c r="F24" s="18" t="n">
+        <v>348</v>
+      </c>
+      <c r="G24" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H24" s="18" t="n">
+        <v>45</v>
+      </c>
+      <c r="I24" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
-      <c r="B25" s="5" t="n"/>
+      <c r="A25" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14" t="n">
+        <v>44318.70436921297</v>
+      </c>
+      <c r="C25" s="15" t="n">
+        <v>66</v>
+      </c>
+      <c r="D25" s="16" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="E25" s="17" t="n">
+        <v>346</v>
+      </c>
+      <c r="F25" s="18" t="n">
+        <v>328</v>
+      </c>
+      <c r="G25" s="19" t="n">
+        <v>18</v>
+      </c>
+      <c r="H25" s="18" t="n">
+        <v>46</v>
+      </c>
+      <c r="I25" s="19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
-      <c r="B26" s="5" t="n"/>
+      <c r="A26" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="14" t="n">
+        <v>44318.71568304922</v>
+      </c>
+      <c r="C26" s="15" t="n">
+        <v>65</v>
+      </c>
+      <c r="D26" s="16" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="E26" s="17" t="n">
+        <v>335</v>
+      </c>
+      <c r="F26" s="18" t="n">
+        <v>326</v>
+      </c>
+      <c r="G26" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="H26" s="18" t="n">
+        <v>43</v>
+      </c>
+      <c r="I26" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="B27" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1407,7 +1407,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="14" t="n">
-        <v>44318.71568304922</v>
+        <v>44318.71568304398</v>
       </c>
       <c r="C26" s="15" t="n">
         <v>65</v>
@@ -1434,10 +1434,66 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="5" t="n"/>
+      <c r="A27" s="13" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="14" t="n">
+        <v>44319.40964741898</v>
+      </c>
+      <c r="C27" s="15" t="n">
+        <v>66</v>
+      </c>
+      <c r="D27" s="16" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="E27" s="17" t="n">
+        <v>349</v>
+      </c>
+      <c r="F27" s="18" t="n">
+        <v>332</v>
+      </c>
+      <c r="G27" s="19" t="n">
+        <v>17</v>
+      </c>
+      <c r="H27" s="18" t="n">
+        <v>48</v>
+      </c>
+      <c r="I27" s="19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
-      <c r="B28" s="5" t="n"/>
+      <c r="A28" s="13" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="14" t="n">
+        <v>44319.53528630686</v>
+      </c>
+      <c r="C28" s="15" t="n">
+        <v>67</v>
+      </c>
+      <c r="D28" s="16" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="E28" s="17" t="n">
+        <v>366</v>
+      </c>
+      <c r="F28" s="18" t="n">
+        <v>337</v>
+      </c>
+      <c r="G28" s="19" t="n">
+        <v>29</v>
+      </c>
+      <c r="H28" s="18" t="n">
+        <v>44</v>
+      </c>
+      <c r="I28" s="19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="29">
       <c r="B29" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -47,6 +47,17 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <strike val="0"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
@@ -59,12 +70,48 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="20">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF9BC2E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FFA9D08E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDD5151"/>
+        <bgColor rgb="FFDD5151"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -139,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -183,6 +230,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <right style="thick"/>
       <bottom style="thin"/>
     </border>
@@ -190,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -247,6 +305,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="15" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -595,7 +674,7 @@
   <dimension ref="A1:I4434"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1469,7 +1548,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="14" t="n">
-        <v>44319.53528630686</v>
+        <v>44319.53528630787</v>
       </c>
       <c r="C28" s="15" t="n">
         <v>67</v>
@@ -1496,52 +1575,500 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="5" t="n"/>
+      <c r="A29" s="13" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="14" t="n">
+        <v>44320.51579550926</v>
+      </c>
+      <c r="C29" s="15" t="n">
+        <v>59</v>
+      </c>
+      <c r="D29" s="16" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="E29" s="17" t="n">
+        <v>328</v>
+      </c>
+      <c r="F29" s="18" t="n">
+        <v>295</v>
+      </c>
+      <c r="G29" s="19" t="n">
+        <v>33</v>
+      </c>
+      <c r="H29" s="18" t="n">
+        <v>42</v>
+      </c>
+      <c r="I29" s="19" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="30">
-      <c r="B30" s="5" t="n"/>
+      <c r="A30" s="13" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="14" t="n">
+        <v>44320.82262746528</v>
+      </c>
+      <c r="C30" s="15" t="n">
+        <v>61</v>
+      </c>
+      <c r="D30" s="16" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="E30" s="17" t="n">
+        <v>320</v>
+      </c>
+      <c r="F30" s="18" t="n">
+        <v>306</v>
+      </c>
+      <c r="G30" s="19" t="n">
+        <v>14</v>
+      </c>
+      <c r="H30" s="18" t="n">
+        <v>38</v>
+      </c>
+      <c r="I30" s="19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
-      <c r="B31" s="5" t="n"/>
+      <c r="A31" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="14" t="n">
+        <v>44321.0118440625</v>
+      </c>
+      <c r="C31" s="15" t="n">
+        <v>63</v>
+      </c>
+      <c r="D31" s="16" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="E31" s="17" t="n">
+        <v>333</v>
+      </c>
+      <c r="F31" s="18" t="n">
+        <v>316</v>
+      </c>
+      <c r="G31" s="19" t="n">
+        <v>17</v>
+      </c>
+      <c r="H31" s="18" t="n">
+        <v>44</v>
+      </c>
+      <c r="I31" s="19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
-      <c r="B32" s="5" t="n"/>
+      <c r="A32" s="13" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="14" t="n">
+        <v>44321.52590959491</v>
+      </c>
+      <c r="C32" s="15" t="n">
+        <v>64</v>
+      </c>
+      <c r="D32" s="16" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="E32" s="17" t="n">
+        <v>329</v>
+      </c>
+      <c r="F32" s="18" t="n">
+        <v>319</v>
+      </c>
+      <c r="G32" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H32" s="18" t="n">
+        <v>45</v>
+      </c>
+      <c r="I32" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
-      <c r="B33" s="5" t="n"/>
+      <c r="A33" s="13" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="14" t="n">
+        <v>44321.52679871528</v>
+      </c>
+      <c r="C33" s="15" t="n">
+        <v>58</v>
+      </c>
+      <c r="D33" s="16" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="E33" s="17" t="n">
+        <v>315</v>
+      </c>
+      <c r="F33" s="18" t="n">
+        <v>291</v>
+      </c>
+      <c r="G33" s="19" t="n">
+        <v>24</v>
+      </c>
+      <c r="H33" s="18" t="n">
+        <v>38</v>
+      </c>
+      <c r="I33" s="19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="34">
-      <c r="B34" s="5" t="n"/>
+      <c r="A34" s="13" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="14" t="n">
+        <v>44321.52795144676</v>
+      </c>
+      <c r="C34" s="15" t="n">
+        <v>58</v>
+      </c>
+      <c r="D34" s="16" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="E34" s="17" t="n">
+        <v>319</v>
+      </c>
+      <c r="F34" s="18" t="n">
+        <v>288</v>
+      </c>
+      <c r="G34" s="19" t="n">
+        <v>31</v>
+      </c>
+      <c r="H34" s="18" t="n">
+        <v>35</v>
+      </c>
+      <c r="I34" s="19" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="35">
-      <c r="B35" s="5" t="n"/>
+      <c r="A35" s="13" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="14" t="n">
+        <v>44321.87750387732</v>
+      </c>
+      <c r="C35" s="15" t="n">
+        <v>64</v>
+      </c>
+      <c r="D35" s="16" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="E35" s="17" t="n">
+        <v>346</v>
+      </c>
+      <c r="F35" s="18" t="n">
+        <v>321</v>
+      </c>
+      <c r="G35" s="19" t="n">
+        <v>25</v>
+      </c>
+      <c r="H35" s="18" t="n">
+        <v>45</v>
+      </c>
+      <c r="I35" s="19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="36">
-      <c r="B36" s="5" t="n"/>
+      <c r="A36" s="13" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="14" t="n">
+        <v>44321.88331064815</v>
+      </c>
+      <c r="C36" s="15" t="n">
+        <v>63</v>
+      </c>
+      <c r="D36" s="16" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="E36" s="17" t="n">
+        <v>333</v>
+      </c>
+      <c r="F36" s="18" t="n">
+        <v>315</v>
+      </c>
+      <c r="G36" s="19" t="n">
+        <v>18</v>
+      </c>
+      <c r="H36" s="18" t="n">
+        <v>41</v>
+      </c>
+      <c r="I36" s="19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="37">
-      <c r="B37" s="5" t="n"/>
+      <c r="A37" s="13" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="14" t="n">
+        <v>44321.88442585648</v>
+      </c>
+      <c r="C37" s="15" t="n">
+        <v>66</v>
+      </c>
+      <c r="D37" s="16" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="E37" s="17" t="n">
+        <v>352</v>
+      </c>
+      <c r="F37" s="18" t="n">
+        <v>328</v>
+      </c>
+      <c r="G37" s="19" t="n">
+        <v>24</v>
+      </c>
+      <c r="H37" s="18" t="n">
+        <v>45</v>
+      </c>
+      <c r="I37" s="19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="38">
-      <c r="B38" s="5" t="n"/>
+      <c r="A38" s="13" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="14" t="n">
+        <v>44322.46509261574</v>
+      </c>
+      <c r="C38" s="15" t="n">
+        <v>61</v>
+      </c>
+      <c r="D38" s="16" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="E38" s="17" t="n">
+        <v>332</v>
+      </c>
+      <c r="F38" s="18" t="n">
+        <v>307</v>
+      </c>
+      <c r="G38" s="19" t="n">
+        <v>25</v>
+      </c>
+      <c r="H38" s="18" t="n">
+        <v>41</v>
+      </c>
+      <c r="I38" s="19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="39">
-      <c r="B39" s="5" t="n"/>
+      <c r="A39" s="13" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="14" t="n">
+        <v>44322.46904239583</v>
+      </c>
+      <c r="C39" s="15" t="n">
+        <v>61</v>
+      </c>
+      <c r="D39" s="16" t="inlineStr">
+        <is>
+          <t>88.7</t>
+        </is>
+      </c>
+      <c r="E39" s="17" t="n">
+        <v>332</v>
+      </c>
+      <c r="F39" s="18" t="n">
+        <v>306</v>
+      </c>
+      <c r="G39" s="19" t="n">
+        <v>26</v>
+      </c>
+      <c r="H39" s="18" t="n">
+        <v>40</v>
+      </c>
+      <c r="I39" s="19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="40">
-      <c r="B40" s="5" t="n"/>
+      <c r="A40" s="20" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="21" t="n">
+        <v>44322.47026811343</v>
+      </c>
+      <c r="C40" s="22" t="n">
+        <v>63</v>
+      </c>
+      <c r="D40" s="23" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="E40" s="24" t="n">
+        <v>332</v>
+      </c>
+      <c r="F40" s="25" t="n">
+        <v>313</v>
+      </c>
+      <c r="G40" s="26" t="n">
+        <v>19</v>
+      </c>
+      <c r="H40" s="25" t="n">
+        <v>42</v>
+      </c>
+      <c r="I40" s="26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
-      <c r="B41" s="5" t="n"/>
+      <c r="A41" s="20" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="21" t="n">
+        <v>44322.47103487269</v>
+      </c>
+      <c r="C41" s="22" t="n">
+        <v>73</v>
+      </c>
+      <c r="D41" s="23" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="E41" s="24" t="n">
+        <v>378</v>
+      </c>
+      <c r="F41" s="25" t="n">
+        <v>364</v>
+      </c>
+      <c r="G41" s="26" t="n">
+        <v>14</v>
+      </c>
+      <c r="H41" s="25" t="n">
+        <v>48</v>
+      </c>
+      <c r="I41" s="26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
-      <c r="B42" s="5" t="n"/>
+      <c r="A42" s="20" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="21" t="n">
+        <v>44322.4718449537</v>
+      </c>
+      <c r="C42" s="22" t="n">
+        <v>63</v>
+      </c>
+      <c r="D42" s="23" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="E42" s="24" t="n">
+        <v>326</v>
+      </c>
+      <c r="F42" s="25" t="n">
+        <v>316</v>
+      </c>
+      <c r="G42" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="H42" s="25" t="n">
+        <v>41</v>
+      </c>
+      <c r="I42" s="26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="5" t="n"/>
+      <c r="A43" s="20" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="21" t="n">
+        <v>44322.60136966435</v>
+      </c>
+      <c r="C43" s="22" t="n">
+        <v>69</v>
+      </c>
+      <c r="D43" s="23" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="E43" s="24" t="n">
+        <v>367</v>
+      </c>
+      <c r="F43" s="25" t="n">
+        <v>344</v>
+      </c>
+      <c r="G43" s="26" t="n">
+        <v>23</v>
+      </c>
+      <c r="H43" s="25" t="n">
+        <v>47</v>
+      </c>
+      <c r="I43" s="26" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
-      <c r="B44" s="5" t="n"/>
+      <c r="A44" s="20" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="21" t="n">
+        <v>44322.60212320282</v>
+      </c>
+      <c r="C44" s="22" t="n">
+        <v>69</v>
+      </c>
+      <c r="D44" s="23" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="E44" s="24" t="n">
+        <v>358</v>
+      </c>
+      <c r="F44" s="25" t="n">
+        <v>346</v>
+      </c>
+      <c r="G44" s="26" t="n">
+        <v>12</v>
+      </c>
+      <c r="H44" s="25" t="n">
+        <v>45</v>
+      </c>
+      <c r="I44" s="26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="B45" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -2044,7 +2044,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="21" t="n">
-        <v>44322.60212320282</v>
+        <v>44322.60212320602</v>
       </c>
       <c r="C44" s="22" t="n">
         <v>69</v>
@@ -2071,7 +2071,35 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" s="5" t="n"/>
+      <c r="A45" s="20" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="21" t="n">
+        <v>44322.63725905702</v>
+      </c>
+      <c r="C45" s="22" t="n">
+        <v>65</v>
+      </c>
+      <c r="D45" s="23" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="E45" s="24" t="n">
+        <v>334</v>
+      </c>
+      <c r="F45" s="25" t="n">
+        <v>327</v>
+      </c>
+      <c r="G45" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="H45" s="25" t="n">
+        <v>46</v>
+      </c>
+      <c r="I45" s="26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="B46" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2075,7 +2075,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="21" t="n">
-        <v>44322.63725905702</v>
+        <v>44322.6372590625</v>
       </c>
       <c r="C45" s="22" t="n">
         <v>65</v>
@@ -2102,10 +2102,66 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" s="5" t="n"/>
+      <c r="A46" s="20" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="21" t="n">
+        <v>44323.61706690972</v>
+      </c>
+      <c r="C46" s="22" t="n">
+        <v>61</v>
+      </c>
+      <c r="D46" s="23" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="E46" s="24" t="n">
+        <v>325</v>
+      </c>
+      <c r="F46" s="25" t="n">
+        <v>303</v>
+      </c>
+      <c r="G46" s="26" t="n">
+        <v>22</v>
+      </c>
+      <c r="H46" s="25" t="n">
+        <v>44</v>
+      </c>
+      <c r="I46" s="26" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="47">
-      <c r="B47" s="5" t="n"/>
+      <c r="A47" s="20" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="21" t="n">
+        <v>44323.61858860608</v>
+      </c>
+      <c r="C47" s="22" t="n">
+        <v>64</v>
+      </c>
+      <c r="D47" s="23" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="E47" s="24" t="n">
+        <v>329</v>
+      </c>
+      <c r="F47" s="25" t="n">
+        <v>320</v>
+      </c>
+      <c r="G47" s="26" t="n">
+        <v>9</v>
+      </c>
+      <c r="H47" s="25" t="n">
+        <v>44</v>
+      </c>
+      <c r="I47" s="26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="B48" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2137,7 +2137,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="21" t="n">
-        <v>44323.61858860608</v>
+        <v>44323.61858861111</v>
       </c>
       <c r="C47" s="22" t="n">
         <v>64</v>
@@ -2164,7 +2164,35 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" s="5" t="n"/>
+      <c r="A48" s="20" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="21" t="n">
+        <v>44323.95247738891</v>
+      </c>
+      <c r="C48" s="22" t="n">
+        <v>65</v>
+      </c>
+      <c r="D48" s="23" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="E48" s="24" t="n">
+        <v>338</v>
+      </c>
+      <c r="F48" s="25" t="n">
+        <v>323</v>
+      </c>
+      <c r="G48" s="26" t="n">
+        <v>15</v>
+      </c>
+      <c r="H48" s="25" t="n">
+        <v>46</v>
+      </c>
+      <c r="I48" s="26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="49">
       <c r="B49" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -2168,7 +2168,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="21" t="n">
-        <v>44323.95247738891</v>
+        <v>44323.95247738426</v>
       </c>
       <c r="C48" s="22" t="n">
         <v>65</v>
@@ -2195,13 +2195,97 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="5" t="n"/>
+      <c r="A49" s="20" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="21" t="n">
+        <v>44324.48907195602</v>
+      </c>
+      <c r="C49" s="22" t="n">
+        <v>68</v>
+      </c>
+      <c r="D49" s="23" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="E49" s="24" t="n">
+        <v>367</v>
+      </c>
+      <c r="F49" s="25" t="n">
+        <v>339</v>
+      </c>
+      <c r="G49" s="26" t="n">
+        <v>28</v>
+      </c>
+      <c r="H49" s="25" t="n">
+        <v>46</v>
+      </c>
+      <c r="I49" s="26" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
-      <c r="B50" s="5" t="n"/>
+      <c r="A50" s="20" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="21" t="n">
+        <v>44324.49060685185</v>
+      </c>
+      <c r="C50" s="22" t="n">
+        <v>64</v>
+      </c>
+      <c r="D50" s="23" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="E50" s="24" t="n">
+        <v>347</v>
+      </c>
+      <c r="F50" s="25" t="n">
+        <v>322</v>
+      </c>
+      <c r="G50" s="26" t="n">
+        <v>25</v>
+      </c>
+      <c r="H50" s="25" t="n">
+        <v>47</v>
+      </c>
+      <c r="I50" s="26" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="51">
-      <c r="B51" s="5" t="n"/>
+      <c r="A51" s="20" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="21" t="n">
+        <v>44324.49185624146</v>
+      </c>
+      <c r="C51" s="22" t="n">
+        <v>60</v>
+      </c>
+      <c r="D51" s="23" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="E51" s="24" t="n">
+        <v>322</v>
+      </c>
+      <c r="F51" s="25" t="n">
+        <v>301</v>
+      </c>
+      <c r="G51" s="26" t="n">
+        <v>21</v>
+      </c>
+      <c r="H51" s="25" t="n">
+        <v>42</v>
+      </c>
+      <c r="I51" s="26" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="B52" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -2261,7 +2261,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="21" t="n">
-        <v>44324.49185624146</v>
+        <v>44324.49185623843</v>
       </c>
       <c r="C51" s="22" t="n">
         <v>60</v>
@@ -2288,7 +2288,35 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" s="5" t="n"/>
+      <c r="A52" s="20" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="21" t="n">
+        <v>44324.81320698602</v>
+      </c>
+      <c r="C52" s="22" t="n">
+        <v>66</v>
+      </c>
+      <c r="D52" s="23" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="E52" s="24" t="n">
+        <v>370</v>
+      </c>
+      <c r="F52" s="25" t="n">
+        <v>330</v>
+      </c>
+      <c r="G52" s="26" t="n">
+        <v>40</v>
+      </c>
+      <c r="H52" s="25" t="n">
+        <v>47</v>
+      </c>
+      <c r="I52" s="26" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="53">
       <c r="B53" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2292,7 +2292,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="21" t="n">
-        <v>44324.81320698602</v>
+        <v>44324.81320699074</v>
       </c>
       <c r="C52" s="22" t="n">
         <v>66</v>
@@ -2319,13 +2319,97 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" s="5" t="n"/>
+      <c r="A53" s="20" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="21" t="n">
+        <v>44326.45234241898</v>
+      </c>
+      <c r="C53" s="22" t="n">
+        <v>73</v>
+      </c>
+      <c r="D53" s="23" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="E53" s="24" t="n">
+        <v>380</v>
+      </c>
+      <c r="F53" s="25" t="n">
+        <v>364</v>
+      </c>
+      <c r="G53" s="26" t="n">
+        <v>16</v>
+      </c>
+      <c r="H53" s="25" t="n">
+        <v>46</v>
+      </c>
+      <c r="I53" s="26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="54">
-      <c r="B54" s="5" t="n"/>
+      <c r="A54" s="20" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="21" t="n">
+        <v>44326.45329805555</v>
+      </c>
+      <c r="C54" s="22" t="n">
+        <v>67</v>
+      </c>
+      <c r="D54" s="23" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="E54" s="24" t="n">
+        <v>345</v>
+      </c>
+      <c r="F54" s="25" t="n">
+        <v>336</v>
+      </c>
+      <c r="G54" s="26" t="n">
+        <v>9</v>
+      </c>
+      <c r="H54" s="25" t="n">
+        <v>49</v>
+      </c>
+      <c r="I54" s="26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
-      <c r="B55" s="5" t="n"/>
+      <c r="A55" s="20" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="21" t="n">
+        <v>44326.45414951528</v>
+      </c>
+      <c r="C55" s="22" t="n">
+        <v>72</v>
+      </c>
+      <c r="D55" s="23" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="E55" s="24" t="n">
+        <v>367</v>
+      </c>
+      <c r="F55" s="25" t="n">
+        <v>359</v>
+      </c>
+      <c r="G55" s="26" t="n">
+        <v>8</v>
+      </c>
+      <c r="H55" s="25" t="n">
+        <v>50</v>
+      </c>
+      <c r="I55" s="26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="B56" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -2385,7 +2385,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="21" t="n">
-        <v>44326.45414951528</v>
+        <v>44326.45414951389</v>
       </c>
       <c r="C55" s="22" t="n">
         <v>72</v>
@@ -2412,13 +2412,97 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" s="5" t="n"/>
+      <c r="A56" s="20" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="21" t="n">
+        <v>44326.72767179398</v>
+      </c>
+      <c r="C56" s="22" t="n">
+        <v>71</v>
+      </c>
+      <c r="D56" s="23" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="E56" s="24" t="n">
+        <v>363</v>
+      </c>
+      <c r="F56" s="25" t="n">
+        <v>357</v>
+      </c>
+      <c r="G56" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="H56" s="25" t="n">
+        <v>47</v>
+      </c>
+      <c r="I56" s="26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
-      <c r="B57" s="5" t="n"/>
+      <c r="A57" s="20" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="21" t="n">
+        <v>44326.72853269676</v>
+      </c>
+      <c r="C57" s="22" t="n">
+        <v>61</v>
+      </c>
+      <c r="D57" s="23" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="E57" s="24" t="n">
+        <v>328</v>
+      </c>
+      <c r="F57" s="25" t="n">
+        <v>304</v>
+      </c>
+      <c r="G57" s="26" t="n">
+        <v>24</v>
+      </c>
+      <c r="H57" s="25" t="n">
+        <v>42</v>
+      </c>
+      <c r="I57" s="26" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
-      <c r="B58" s="5" t="n"/>
+      <c r="A58" s="20" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="21" t="n">
+        <v>44326.72932028989</v>
+      </c>
+      <c r="C58" s="22" t="n">
+        <v>67</v>
+      </c>
+      <c r="D58" s="23" t="inlineStr">
+        <is>
+          <t>96.82</t>
+        </is>
+      </c>
+      <c r="E58" s="24" t="n">
+        <v>335</v>
+      </c>
+      <c r="F58" s="25" t="n">
+        <v>335</v>
+      </c>
+      <c r="G58" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="25" t="n">
+        <v>47</v>
+      </c>
+      <c r="I58" s="26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="B59" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -58,6 +58,17 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <strike val="0"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
@@ -70,12 +81,48 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="26">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF9BC2E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FFA9D08E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDD5151"/>
+        <bgColor rgb="FFDD5151"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -186,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -241,6 +288,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <right style="thick"/>
       <bottom style="thin"/>
     </border>
@@ -248,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -326,6 +384,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="21" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -674,7 +753,8 @@
   <dimension ref="A1:I4434"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2478,7 +2558,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="21" t="n">
-        <v>44326.72932028989</v>
+        <v>44326.72932028935</v>
       </c>
       <c r="C58" s="22" t="n">
         <v>67</v>
@@ -2505,22 +2585,190 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" s="5" t="n"/>
+      <c r="A59" s="27" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="28" t="n">
+        <v>44328.4720450463</v>
+      </c>
+      <c r="C59" s="29" t="n">
+        <v>67</v>
+      </c>
+      <c r="D59" s="30" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="E59" s="31" t="n">
+        <v>337</v>
+      </c>
+      <c r="F59" s="32" t="n">
+        <v>337</v>
+      </c>
+      <c r="G59" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="32" t="n">
+        <v>45</v>
+      </c>
+      <c r="I59" s="33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
-      <c r="B60" s="5" t="n"/>
+      <c r="A60" s="27" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="28" t="n">
+        <v>44328.47281042824</v>
+      </c>
+      <c r="C60" s="29" t="n">
+        <v>61</v>
+      </c>
+      <c r="D60" s="30" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="E60" s="31" t="n">
+        <v>320</v>
+      </c>
+      <c r="F60" s="32" t="n">
+        <v>307</v>
+      </c>
+      <c r="G60" s="33" t="n">
+        <v>13</v>
+      </c>
+      <c r="H60" s="32" t="n">
+        <v>43</v>
+      </c>
+      <c r="I60" s="33" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
-      <c r="B61" s="5" t="n"/>
+      <c r="A61" s="27" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="28" t="n">
+        <v>44328.47391271991</v>
+      </c>
+      <c r="C61" s="29" t="n">
+        <v>63</v>
+      </c>
+      <c r="D61" s="30" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="E61" s="31" t="n">
+        <v>351</v>
+      </c>
+      <c r="F61" s="32" t="n">
+        <v>317</v>
+      </c>
+      <c r="G61" s="33" t="n">
+        <v>34</v>
+      </c>
+      <c r="H61" s="32" t="n">
+        <v>43</v>
+      </c>
+      <c r="I61" s="33" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="62">
-      <c r="B62" s="5" t="n"/>
+      <c r="A62" s="27" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="28" t="n">
+        <v>44329.48335356481</v>
+      </c>
+      <c r="C62" s="29" t="n">
+        <v>62</v>
+      </c>
+      <c r="D62" s="30" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="E62" s="31" t="n">
+        <v>325</v>
+      </c>
+      <c r="F62" s="32" t="n">
+        <v>309</v>
+      </c>
+      <c r="G62" s="33" t="n">
+        <v>16</v>
+      </c>
+      <c r="H62" s="32" t="n">
+        <v>43</v>
+      </c>
+      <c r="I62" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="63">
-      <c r="B63" s="5" t="n"/>
+      <c r="A63" s="27" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="28" t="n">
+        <v>44329.48421325231</v>
+      </c>
+      <c r="C63" s="29" t="n">
+        <v>63</v>
+      </c>
+      <c r="D63" s="30" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="E63" s="31" t="n">
+        <v>316</v>
+      </c>
+      <c r="F63" s="32" t="n">
+        <v>316</v>
+      </c>
+      <c r="G63" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="32" t="n">
+        <v>44</v>
+      </c>
+      <c r="I63" s="33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
-      <c r="B64" s="5" t="n"/>
+      <c r="A64" s="27" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="28" t="n">
+        <v>44329.48506846044</v>
+      </c>
+      <c r="C64" s="29" t="n">
+        <v>70</v>
+      </c>
+      <c r="D64" s="30" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="E64" s="31" t="n">
+        <v>348</v>
+      </c>
+      <c r="F64" s="32" t="n">
+        <v>348</v>
+      </c>
+      <c r="G64" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="32" t="n">
+        <v>48</v>
+      </c>
+      <c r="I64" s="33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="B65" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2744,7 +2744,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="28" t="n">
-        <v>44329.48506846044</v>
+        <v>44329.48506846065</v>
       </c>
       <c r="C64" s="29" t="n">
         <v>70</v>
@@ -2771,10 +2771,66 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" s="5" t="n"/>
+      <c r="A65" s="27" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="28" t="n">
+        <v>44330.64215885416</v>
+      </c>
+      <c r="C65" s="29" t="n">
+        <v>65</v>
+      </c>
+      <c r="D65" s="30" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="E65" s="31" t="n">
+        <v>325</v>
+      </c>
+      <c r="F65" s="32" t="n">
+        <v>325</v>
+      </c>
+      <c r="G65" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="32" t="n">
+        <v>47</v>
+      </c>
+      <c r="I65" s="33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
-      <c r="B66" s="5" t="n"/>
+      <c r="A66" s="27" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="28" t="n">
+        <v>44330.64293028875</v>
+      </c>
+      <c r="C66" s="29" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" s="30" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="E66" s="31" t="n">
+        <v>348</v>
+      </c>
+      <c r="F66" s="32" t="n">
+        <v>321</v>
+      </c>
+      <c r="G66" s="33" t="n">
+        <v>27</v>
+      </c>
+      <c r="H66" s="32" t="n">
+        <v>45</v>
+      </c>
+      <c r="I66" s="33" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="B67" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2806,7 +2806,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="28" t="n">
-        <v>44330.64293028875</v>
+        <v>44330.64293028935</v>
       </c>
       <c r="C66" s="29" t="n">
         <v>64</v>
@@ -2833,7 +2833,35 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" s="5" t="n"/>
+      <c r="A67" s="27" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="28" t="n">
+        <v>44331.45088078626</v>
+      </c>
+      <c r="C67" s="29" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" s="30" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="E67" s="31" t="n">
+        <v>332</v>
+      </c>
+      <c r="F67" s="32" t="n">
+        <v>324</v>
+      </c>
+      <c r="G67" s="33" t="n">
+        <v>8</v>
+      </c>
+      <c r="H67" s="32" t="n">
+        <v>45</v>
+      </c>
+      <c r="I67" s="33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="B68" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -3573,7 +3573,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="63" t="n">
-        <v>44334.67707271329</v>
+        <v>44334.67707270833</v>
       </c>
       <c r="C78" s="64" t="n">
         <v>68</v>
@@ -3600,18 +3600,66 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="55" t="n"/>
-      <c r="B79" s="56" t="n"/>
-      <c r="C79" s="57" t="n"/>
-      <c r="D79" s="58" t="n"/>
-      <c r="E79" s="59" t="n"/>
-      <c r="F79" s="60" t="n"/>
-      <c r="G79" s="61" t="n"/>
-      <c r="H79" s="60" t="n"/>
-      <c r="I79" s="61" t="n"/>
+      <c r="A79" s="62" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="63" t="n">
+        <v>44334.77741354167</v>
+      </c>
+      <c r="C79" s="64" t="n">
+        <v>58</v>
+      </c>
+      <c r="D79" s="65" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="E79" s="66" t="n">
+        <v>306</v>
+      </c>
+      <c r="F79" s="67" t="n">
+        <v>291</v>
+      </c>
+      <c r="G79" s="68" t="n">
+        <v>15</v>
+      </c>
+      <c r="H79" s="67" t="n">
+        <v>42</v>
+      </c>
+      <c r="I79" s="68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="80">
-      <c r="B80" s="5" t="n"/>
+      <c r="A80" s="62" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="63" t="n">
+        <v>44334.77982198507</v>
+      </c>
+      <c r="C80" s="64" t="n">
+        <v>66</v>
+      </c>
+      <c r="D80" s="65" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="E80" s="66" t="n">
+        <v>337</v>
+      </c>
+      <c r="F80" s="67" t="n">
+        <v>328</v>
+      </c>
+      <c r="G80" s="68" t="n">
+        <v>9</v>
+      </c>
+      <c r="H80" s="67" t="n">
+        <v>45</v>
+      </c>
+      <c r="I80" s="68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="B81" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -3635,7 +3635,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="63" t="n">
-        <v>44334.77982198507</v>
+        <v>44334.77982199074</v>
       </c>
       <c r="C80" s="64" t="n">
         <v>66</v>
@@ -3662,13 +3662,97 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" s="5" t="n"/>
+      <c r="A81" s="62" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="63" t="n">
+        <v>44335.45087869213</v>
+      </c>
+      <c r="C81" s="64" t="n">
+        <v>66</v>
+      </c>
+      <c r="D81" s="65" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="E81" s="66" t="n">
+        <v>368</v>
+      </c>
+      <c r="F81" s="67" t="n">
+        <v>330</v>
+      </c>
+      <c r="G81" s="68" t="n">
+        <v>38</v>
+      </c>
+      <c r="H81" s="67" t="n">
+        <v>46</v>
+      </c>
+      <c r="I81" s="68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="82">
-      <c r="B82" s="5" t="n"/>
+      <c r="A82" s="62" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="63" t="n">
+        <v>44335.45170489584</v>
+      </c>
+      <c r="C82" s="64" t="n">
+        <v>67</v>
+      </c>
+      <c r="D82" s="65" t="inlineStr">
+        <is>
+          <t>91.3</t>
+        </is>
+      </c>
+      <c r="E82" s="66" t="n">
+        <v>357</v>
+      </c>
+      <c r="F82" s="67" t="n">
+        <v>336</v>
+      </c>
+      <c r="G82" s="68" t="n">
+        <v>21</v>
+      </c>
+      <c r="H82" s="67" t="n">
+        <v>47</v>
+      </c>
+      <c r="I82" s="68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="83">
-      <c r="B83" s="5" t="n"/>
+      <c r="A83" s="62" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" s="63" t="n">
+        <v>44335.45246214011</v>
+      </c>
+      <c r="C83" s="64" t="n">
+        <v>67</v>
+      </c>
+      <c r="D83" s="65" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="E83" s="66" t="n">
+        <v>386</v>
+      </c>
+      <c r="F83" s="67" t="n">
+        <v>336</v>
+      </c>
+      <c r="G83" s="68" t="n">
+        <v>50</v>
+      </c>
+      <c r="H83" s="67" t="n">
+        <v>46</v>
+      </c>
+      <c r="I83" s="68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="84">
       <c r="B84" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -3728,7 +3728,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="63" t="n">
-        <v>44335.45246214011</v>
+        <v>44335.45246214121</v>
       </c>
       <c r="C83" s="64" t="n">
         <v>67</v>
@@ -3755,13 +3755,97 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" s="5" t="n"/>
+      <c r="A84" s="62" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" s="63" t="n">
+        <v>44336.51682740741</v>
+      </c>
+      <c r="C84" s="64" t="n">
+        <v>71</v>
+      </c>
+      <c r="D84" s="65" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="E84" s="66" t="n">
+        <v>378</v>
+      </c>
+      <c r="F84" s="67" t="n">
+        <v>357</v>
+      </c>
+      <c r="G84" s="68" t="n">
+        <v>21</v>
+      </c>
+      <c r="H84" s="67" t="n">
+        <v>51</v>
+      </c>
+      <c r="I84" s="68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="85">
-      <c r="B85" s="5" t="n"/>
+      <c r="A85" s="62" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" s="63" t="n">
+        <v>44336.51768430555</v>
+      </c>
+      <c r="C85" s="64" t="n">
+        <v>67</v>
+      </c>
+      <c r="D85" s="65" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="E85" s="66" t="n">
+        <v>355</v>
+      </c>
+      <c r="F85" s="67" t="n">
+        <v>333</v>
+      </c>
+      <c r="G85" s="68" t="n">
+        <v>22</v>
+      </c>
+      <c r="H85" s="67" t="n">
+        <v>49</v>
+      </c>
+      <c r="I85" s="68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
-      <c r="B86" s="5" t="n"/>
+      <c r="A86" s="62" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="63" t="n">
+        <v>44336.51848198027</v>
+      </c>
+      <c r="C86" s="64" t="n">
+        <v>76</v>
+      </c>
+      <c r="D86" s="65" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="E86" s="66" t="n">
+        <v>389</v>
+      </c>
+      <c r="F86" s="67" t="n">
+        <v>379</v>
+      </c>
+      <c r="G86" s="68" t="n">
+        <v>10</v>
+      </c>
+      <c r="H86" s="67" t="n">
+        <v>53</v>
+      </c>
+      <c r="I86" s="68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="B87" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13395" yWindow="4380" windowWidth="23700" windowHeight="15540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3821,7 +3821,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="63" t="n">
-        <v>44336.51848198027</v>
+        <v>44336.51848197917</v>
       </c>
       <c r="C86" s="64" t="n">
         <v>76</v>
@@ -3848,13 +3848,97 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" s="5" t="n"/>
+      <c r="A87" s="62" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" s="63" t="n">
+        <v>44337.4785909375</v>
+      </c>
+      <c r="C87" s="64" t="n">
+        <v>79</v>
+      </c>
+      <c r="D87" s="65" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="E87" s="66" t="n">
+        <v>407</v>
+      </c>
+      <c r="F87" s="67" t="n">
+        <v>397</v>
+      </c>
+      <c r="G87" s="68" t="n">
+        <v>10</v>
+      </c>
+      <c r="H87" s="67" t="n">
+        <v>52</v>
+      </c>
+      <c r="I87" s="68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
-      <c r="B88" s="5" t="n"/>
+      <c r="A88" s="62" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="63" t="n">
+        <v>44337.48906549768</v>
+      </c>
+      <c r="C88" s="64" t="n">
+        <v>76</v>
+      </c>
+      <c r="D88" s="65" t="inlineStr">
+        <is>
+          <t>95.25</t>
+        </is>
+      </c>
+      <c r="E88" s="66" t="n">
+        <v>387</v>
+      </c>
+      <c r="F88" s="67" t="n">
+        <v>381</v>
+      </c>
+      <c r="G88" s="68" t="n">
+        <v>6</v>
+      </c>
+      <c r="H88" s="67" t="n">
+        <v>53</v>
+      </c>
+      <c r="I88" s="68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
-      <c r="B89" s="5" t="n"/>
+      <c r="A89" s="62" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" s="63" t="n">
+        <v>44337.50060065928</v>
+      </c>
+      <c r="C89" s="64" t="n">
+        <v>66</v>
+      </c>
+      <c r="D89" s="65" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="E89" s="66" t="n">
+        <v>338</v>
+      </c>
+      <c r="F89" s="67" t="n">
+        <v>328</v>
+      </c>
+      <c r="G89" s="68" t="n">
+        <v>10</v>
+      </c>
+      <c r="H89" s="67" t="n">
+        <v>45</v>
+      </c>
+      <c r="I89" s="68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="B90" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13395" yWindow="4380" windowWidth="23700" windowHeight="15540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3914,7 +3914,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="63" t="n">
-        <v>44337.50060065928</v>
+        <v>44337.50060065973</v>
       </c>
       <c r="C89" s="64" t="n">
         <v>66</v>
@@ -3941,16 +3941,128 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" s="5" t="n"/>
+      <c r="A90" s="62" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" s="63" t="n">
+        <v>44338.38007898148</v>
+      </c>
+      <c r="C90" s="64" t="n">
+        <v>66</v>
+      </c>
+      <c r="D90" s="65" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="E90" s="66" t="n">
+        <v>353</v>
+      </c>
+      <c r="F90" s="67" t="n">
+        <v>328</v>
+      </c>
+      <c r="G90" s="68" t="n">
+        <v>25</v>
+      </c>
+      <c r="H90" s="67" t="n">
+        <v>48</v>
+      </c>
+      <c r="I90" s="68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="91">
-      <c r="B91" s="5" t="n"/>
+      <c r="A91" s="62" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" s="63" t="n">
+        <v>44340.44523178241</v>
+      </c>
+      <c r="C91" s="64" t="n">
+        <v>83</v>
+      </c>
+      <c r="D91" s="65" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="E91" s="66" t="n">
+        <v>421</v>
+      </c>
+      <c r="F91" s="67" t="n">
+        <v>415</v>
+      </c>
+      <c r="G91" s="68" t="n">
+        <v>6</v>
+      </c>
+      <c r="H91" s="67" t="n">
+        <v>58</v>
+      </c>
+      <c r="I91" s="68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
-      <c r="B92" s="5" t="n"/>
+      <c r="A92" s="62" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" s="63" t="n">
+        <v>44340.44622471065</v>
+      </c>
+      <c r="C92" s="64" t="n">
+        <v>76</v>
+      </c>
+      <c r="D92" s="65" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="E92" s="66" t="n">
+        <v>379</v>
+      </c>
+      <c r="F92" s="67" t="n">
+        <v>379</v>
+      </c>
+      <c r="G92" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" s="67" t="n">
+        <v>51</v>
+      </c>
+      <c r="I92" s="68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
-      <c r="B93" s="5" t="n"/>
+      <c r="A93" s="62" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" s="63" t="n">
+        <v>44340.44698405136</v>
+      </c>
+      <c r="C93" s="64" t="n">
+        <v>73</v>
+      </c>
+      <c r="D93" s="65" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="E93" s="66" t="n">
+        <v>373</v>
+      </c>
+      <c r="F93" s="67" t="n">
+        <v>367</v>
+      </c>
+      <c r="G93" s="68" t="n">
+        <v>6</v>
+      </c>
+      <c r="H93" s="67" t="n">
+        <v>49</v>
+      </c>
+      <c r="I93" s="68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="B94" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13395" yWindow="4380" windowWidth="23700" windowHeight="15540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4038,7 +4038,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="63" t="n">
-        <v>44340.44698405136</v>
+        <v>44340.44698405093</v>
       </c>
       <c r="C93" s="64" t="n">
         <v>73</v>
@@ -4065,13 +4065,97 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" s="5" t="n"/>
+      <c r="A94" s="62" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" s="63" t="n">
+        <v>44341.52555626157</v>
+      </c>
+      <c r="C94" s="64" t="n">
+        <v>65</v>
+      </c>
+      <c r="D94" s="65" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="E94" s="66" t="n">
+        <v>338</v>
+      </c>
+      <c r="F94" s="67" t="n">
+        <v>324</v>
+      </c>
+      <c r="G94" s="68" t="n">
+        <v>14</v>
+      </c>
+      <c r="H94" s="67" t="n">
+        <v>44</v>
+      </c>
+      <c r="I94" s="68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="95">
-      <c r="B95" s="5" t="n"/>
+      <c r="A95" s="62" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" s="63" t="n">
+        <v>44341.52639458334</v>
+      </c>
+      <c r="C95" s="64" t="n">
+        <v>66</v>
+      </c>
+      <c r="D95" s="65" t="inlineStr">
+        <is>
+          <t>95.94</t>
+        </is>
+      </c>
+      <c r="E95" s="66" t="n">
+        <v>331</v>
+      </c>
+      <c r="F95" s="67" t="n">
+        <v>331</v>
+      </c>
+      <c r="G95" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" s="67" t="n">
+        <v>46</v>
+      </c>
+      <c r="I95" s="68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
-      <c r="B96" s="5" t="n"/>
+      <c r="A96" s="62" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" s="63" t="n">
+        <v>44341.52719019439</v>
+      </c>
+      <c r="C96" s="64" t="n">
+        <v>77</v>
+      </c>
+      <c r="D96" s="65" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="E96" s="66" t="n">
+        <v>399</v>
+      </c>
+      <c r="F96" s="67" t="n">
+        <v>386</v>
+      </c>
+      <c r="G96" s="68" t="n">
+        <v>13</v>
+      </c>
+      <c r="H96" s="67" t="n">
+        <v>52</v>
+      </c>
+      <c r="I96" s="68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="97">
       <c r="B97" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -4131,7 +4131,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="63" t="n">
-        <v>44341.52719019439</v>
+        <v>44341.52719019676</v>
       </c>
       <c r="C96" s="64" t="n">
         <v>77</v>
@@ -4158,13 +4158,97 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" s="5" t="n"/>
+      <c r="A97" s="62" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" s="63" t="n">
+        <v>44344.41815657407</v>
+      </c>
+      <c r="C97" s="64" t="n">
+        <v>67</v>
+      </c>
+      <c r="D97" s="65" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="E97" s="66" t="n">
+        <v>342</v>
+      </c>
+      <c r="F97" s="67" t="n">
+        <v>333</v>
+      </c>
+      <c r="G97" s="68" t="n">
+        <v>9</v>
+      </c>
+      <c r="H97" s="67" t="n">
+        <v>48</v>
+      </c>
+      <c r="I97" s="68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
-      <c r="B98" s="5" t="n"/>
+      <c r="A98" s="62" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" s="63" t="n">
+        <v>44344.41891972222</v>
+      </c>
+      <c r="C98" s="64" t="n">
+        <v>73</v>
+      </c>
+      <c r="D98" s="65" t="inlineStr">
+        <is>
+          <t>96.03</t>
+        </is>
+      </c>
+      <c r="E98" s="66" t="n">
+        <v>369</v>
+      </c>
+      <c r="F98" s="67" t="n">
+        <v>363</v>
+      </c>
+      <c r="G98" s="68" t="n">
+        <v>6</v>
+      </c>
+      <c r="H98" s="67" t="n">
+        <v>52</v>
+      </c>
+      <c r="I98" s="68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
-      <c r="B99" s="5" t="n"/>
+      <c r="A99" s="62" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" s="63" t="n">
+        <v>44344.41968097702</v>
+      </c>
+      <c r="C99" s="64" t="n">
+        <v>65</v>
+      </c>
+      <c r="D99" s="65" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="E99" s="66" t="n">
+        <v>347</v>
+      </c>
+      <c r="F99" s="67" t="n">
+        <v>324</v>
+      </c>
+      <c r="G99" s="68" t="n">
+        <v>23</v>
+      </c>
+      <c r="H99" s="67" t="n">
+        <v>44</v>
+      </c>
+      <c r="I99" s="68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="100">
       <c r="B100" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13395" yWindow="4380" windowWidth="23700" windowHeight="15540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4224,7 +4224,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="63" t="n">
-        <v>44344.41968097702</v>
+        <v>44344.41968097222</v>
       </c>
       <c r="C99" s="64" t="n">
         <v>65</v>
@@ -4251,13 +4251,97 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" s="5" t="n"/>
+      <c r="A100" s="62" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" s="63" t="n">
+        <v>44346.52441862268</v>
+      </c>
+      <c r="C100" s="64" t="n">
+        <v>71</v>
+      </c>
+      <c r="D100" s="65" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="E100" s="66" t="n">
+        <v>385</v>
+      </c>
+      <c r="F100" s="67" t="n">
+        <v>355</v>
+      </c>
+      <c r="G100" s="68" t="n">
+        <v>30</v>
+      </c>
+      <c r="H100" s="67" t="n">
+        <v>47</v>
+      </c>
+      <c r="I100" s="68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
-      <c r="B101" s="5" t="n"/>
+      <c r="A101" s="62" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="63" t="n">
+        <v>44346.52518644676</v>
+      </c>
+      <c r="C101" s="64" t="n">
+        <v>73</v>
+      </c>
+      <c r="D101" s="65" t="inlineStr">
+        <is>
+          <t>89.9</t>
+        </is>
+      </c>
+      <c r="E101" s="66" t="n">
+        <v>386</v>
+      </c>
+      <c r="F101" s="67" t="n">
+        <v>365</v>
+      </c>
+      <c r="G101" s="68" t="n">
+        <v>21</v>
+      </c>
+      <c r="H101" s="67" t="n">
+        <v>49</v>
+      </c>
+      <c r="I101" s="68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
-      <c r="B102" s="5" t="n"/>
+      <c r="A102" s="62" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" s="63" t="n">
+        <v>44346.52612817736</v>
+      </c>
+      <c r="C102" s="64" t="n">
+        <v>73</v>
+      </c>
+      <c r="D102" s="65" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="E102" s="66" t="n">
+        <v>388</v>
+      </c>
+      <c r="F102" s="67" t="n">
+        <v>366</v>
+      </c>
+      <c r="G102" s="68" t="n">
+        <v>22</v>
+      </c>
+      <c r="H102" s="67" t="n">
+        <v>50</v>
+      </c>
+      <c r="I102" s="68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="B103" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13395" yWindow="4380" windowWidth="23700" windowHeight="15540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4317,7 +4317,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="63" t="n">
-        <v>44346.52612817736</v>
+        <v>44346.52612818287</v>
       </c>
       <c r="C102" s="64" t="n">
         <v>73</v>
@@ -4344,13 +4344,97 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" s="5" t="n"/>
+      <c r="A103" s="62" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" s="63" t="n">
+        <v>44347.49071393519</v>
+      </c>
+      <c r="C103" s="64" t="n">
+        <v>76</v>
+      </c>
+      <c r="D103" s="65" t="inlineStr">
+        <is>
+          <t>95.5</t>
+        </is>
+      </c>
+      <c r="E103" s="66" t="n">
+        <v>389</v>
+      </c>
+      <c r="F103" s="67" t="n">
+        <v>382</v>
+      </c>
+      <c r="G103" s="68" t="n">
+        <v>7</v>
+      </c>
+      <c r="H103" s="67" t="n">
+        <v>50</v>
+      </c>
+      <c r="I103" s="68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
-      <c r="B104" s="5" t="n"/>
+      <c r="A104" s="62" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" s="63" t="n">
+        <v>44347.49149810185</v>
+      </c>
+      <c r="C104" s="64" t="n">
+        <v>71</v>
+      </c>
+      <c r="D104" s="65" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="E104" s="66" t="n">
+        <v>371</v>
+      </c>
+      <c r="F104" s="67" t="n">
+        <v>355</v>
+      </c>
+      <c r="G104" s="68" t="n">
+        <v>16</v>
+      </c>
+      <c r="H104" s="67" t="n">
+        <v>42</v>
+      </c>
+      <c r="I104" s="68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
-      <c r="B105" s="5" t="n"/>
+      <c r="A105" s="62" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" s="63" t="n">
+        <v>44347.4922545511</v>
+      </c>
+      <c r="C105" s="64" t="n">
+        <v>72</v>
+      </c>
+      <c r="D105" s="65" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="E105" s="66" t="n">
+        <v>361</v>
+      </c>
+      <c r="F105" s="67" t="n">
+        <v>361</v>
+      </c>
+      <c r="G105" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" s="67" t="n">
+        <v>50</v>
+      </c>
+      <c r="I105" s="68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="B106" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13395" yWindow="4380" windowWidth="23700" windowHeight="15540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4410,7 +4410,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="63" t="n">
-        <v>44347.4922545511</v>
+        <v>44347.49225454861</v>
       </c>
       <c r="C105" s="64" t="n">
         <v>72</v>
@@ -4437,19 +4437,159 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" s="5" t="n"/>
+      <c r="A106" s="62" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" s="63" t="n">
+        <v>44348.48564891204</v>
+      </c>
+      <c r="C106" s="64" t="n">
+        <v>64</v>
+      </c>
+      <c r="D106" s="65" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="E106" s="66" t="n">
+        <v>336</v>
+      </c>
+      <c r="F106" s="67" t="n">
+        <v>321</v>
+      </c>
+      <c r="G106" s="68" t="n">
+        <v>15</v>
+      </c>
+      <c r="H106" s="67" t="n">
+        <v>41</v>
+      </c>
+      <c r="I106" s="68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
-      <c r="B107" s="5" t="n"/>
+      <c r="A107" s="62" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" s="63" t="n">
+        <v>44348.5756559375</v>
+      </c>
+      <c r="C107" s="64" t="n">
+        <v>73</v>
+      </c>
+      <c r="D107" s="65" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="E107" s="66" t="n">
+        <v>387</v>
+      </c>
+      <c r="F107" s="67" t="n">
+        <v>366</v>
+      </c>
+      <c r="G107" s="68" t="n">
+        <v>21</v>
+      </c>
+      <c r="H107" s="67" t="n">
+        <v>50</v>
+      </c>
+      <c r="I107" s="68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="108">
-      <c r="B108" s="5" t="n"/>
+      <c r="A108" s="62" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" s="63" t="n">
+        <v>44348.57642070602</v>
+      </c>
+      <c r="C108" s="64" t="n">
+        <v>74</v>
+      </c>
+      <c r="D108" s="65" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="E108" s="66" t="n">
+        <v>381</v>
+      </c>
+      <c r="F108" s="67" t="n">
+        <v>370</v>
+      </c>
+      <c r="G108" s="68" t="n">
+        <v>11</v>
+      </c>
+      <c r="H108" s="67" t="n">
+        <v>51</v>
+      </c>
+      <c r="I108" s="68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="109">
-      <c r="B109" s="5" t="n"/>
+      <c r="A109" s="62" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" s="63" t="n">
+        <v>44349.49837809028</v>
+      </c>
+      <c r="C109" s="64" t="n">
+        <v>85</v>
+      </c>
+      <c r="D109" s="65" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="E109" s="66" t="n">
+        <v>426</v>
+      </c>
+      <c r="F109" s="67" t="n">
+        <v>426</v>
+      </c>
+      <c r="G109" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" s="67" t="n">
+        <v>57</v>
+      </c>
+      <c r="I109" s="68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
-      <c r="B110" s="5" t="n"/>
+      <c r="A110" s="62" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" s="63" t="n">
+        <v>44349.49914165214</v>
+      </c>
+      <c r="C110" s="64" t="n">
+        <v>70</v>
+      </c>
+      <c r="D110" s="65" t="inlineStr">
+        <is>
+          <t>90.7</t>
+        </is>
+      </c>
+      <c r="E110" s="66" t="n">
+        <v>372</v>
+      </c>
+      <c r="F110" s="67" t="n">
+        <v>351</v>
+      </c>
+      <c r="G110" s="68" t="n">
+        <v>21</v>
+      </c>
+      <c r="H110" s="67" t="n">
+        <v>46</v>
+      </c>
+      <c r="I110" s="68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="111">
       <c r="B111" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -4565,7 +4565,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="63" t="n">
-        <v>44349.49914165214</v>
+        <v>44349.49914165509</v>
       </c>
       <c r="C110" s="64" t="n">
         <v>70</v>
@@ -4592,10 +4592,66 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" s="5" t="n"/>
+      <c r="A111" s="62" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" s="63" t="n">
+        <v>44350.48298092592</v>
+      </c>
+      <c r="C111" s="64" t="n">
+        <v>74</v>
+      </c>
+      <c r="D111" s="65" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="E111" s="66" t="n">
+        <v>378</v>
+      </c>
+      <c r="F111" s="67" t="n">
+        <v>372</v>
+      </c>
+      <c r="G111" s="68" t="n">
+        <v>6</v>
+      </c>
+      <c r="H111" s="67" t="n">
+        <v>53</v>
+      </c>
+      <c r="I111" s="68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
-      <c r="B112" s="5" t="n"/>
+      <c r="A112" s="62" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" s="63" t="n">
+        <v>44350.484475814</v>
+      </c>
+      <c r="C112" s="64" t="n">
+        <v>67</v>
+      </c>
+      <c r="D112" s="65" t="inlineStr">
+        <is>
+          <t>89.6</t>
+        </is>
+      </c>
+      <c r="E112" s="66" t="n">
+        <v>360</v>
+      </c>
+      <c r="F112" s="67" t="n">
+        <v>336</v>
+      </c>
+      <c r="G112" s="68" t="n">
+        <v>24</v>
+      </c>
+      <c r="H112" s="67" t="n">
+        <v>48</v>
+      </c>
+      <c r="I112" s="68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="113">
       <c r="B113" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13395" yWindow="4380" windowWidth="23700" windowHeight="15540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4627,7 +4627,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="63" t="n">
-        <v>44350.484475814</v>
+        <v>44350.48447581018</v>
       </c>
       <c r="C112" s="64" t="n">
         <v>67</v>
@@ -4654,10 +4654,66 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" s="5" t="n"/>
+      <c r="A113" s="62" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" s="63" t="n">
+        <v>44351.62262637731</v>
+      </c>
+      <c r="C113" s="64" t="n">
+        <v>74</v>
+      </c>
+      <c r="D113" s="65" t="inlineStr">
+        <is>
+          <t>90.2</t>
+        </is>
+      </c>
+      <c r="E113" s="66" t="n">
+        <v>393</v>
+      </c>
+      <c r="F113" s="67" t="n">
+        <v>368</v>
+      </c>
+      <c r="G113" s="68" t="n">
+        <v>25</v>
+      </c>
+      <c r="H113" s="67" t="n">
+        <v>56</v>
+      </c>
+      <c r="I113" s="68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="114">
-      <c r="B114" s="5" t="n"/>
+      <c r="A114" s="62" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" s="63" t="n">
+        <v>44351.62391357015</v>
+      </c>
+      <c r="C114" s="64" t="n">
+        <v>78</v>
+      </c>
+      <c r="D114" s="65" t="inlineStr">
+        <is>
+          <t>95.1</t>
+        </is>
+      </c>
+      <c r="E114" s="66" t="n">
+        <v>396</v>
+      </c>
+      <c r="F114" s="67" t="n">
+        <v>388</v>
+      </c>
+      <c r="G114" s="68" t="n">
+        <v>8</v>
+      </c>
+      <c r="H114" s="67" t="n">
+        <v>52</v>
+      </c>
+      <c r="I114" s="68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="115">
       <c r="B115" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13395" yWindow="4380" windowWidth="23700" windowHeight="15540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4689,7 +4689,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="63" t="n">
-        <v>44351.62391357015</v>
+        <v>44351.62391356481</v>
       </c>
       <c r="C114" s="64" t="n">
         <v>78</v>
@@ -4716,13 +4716,97 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" s="5" t="n"/>
+      <c r="A115" s="62" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" s="63" t="n">
+        <v>44352.47271520834</v>
+      </c>
+      <c r="C115" s="64" t="n">
+        <v>66</v>
+      </c>
+      <c r="D115" s="65" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="E115" s="66" t="n">
+        <v>348</v>
+      </c>
+      <c r="F115" s="67" t="n">
+        <v>329</v>
+      </c>
+      <c r="G115" s="68" t="n">
+        <v>19</v>
+      </c>
+      <c r="H115" s="67" t="n">
+        <v>47</v>
+      </c>
+      <c r="I115" s="68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="116">
-      <c r="B116" s="5" t="n"/>
+      <c r="A116" s="62" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" s="63" t="n">
+        <v>44352.47347180556</v>
+      </c>
+      <c r="C116" s="64" t="n">
+        <v>74</v>
+      </c>
+      <c r="D116" s="65" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="E116" s="66" t="n">
+        <v>374</v>
+      </c>
+      <c r="F116" s="67" t="n">
+        <v>368</v>
+      </c>
+      <c r="G116" s="68" t="n">
+        <v>6</v>
+      </c>
+      <c r="H116" s="67" t="n">
+        <v>51</v>
+      </c>
+      <c r="I116" s="68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
-      <c r="B117" s="5" t="n"/>
+      <c r="A117" s="62" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" s="63" t="n">
+        <v>44353.92098366426</v>
+      </c>
+      <c r="C117" s="64" t="n">
+        <v>66</v>
+      </c>
+      <c r="D117" s="65" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="E117" s="66" t="n">
+        <v>350</v>
+      </c>
+      <c r="F117" s="67" t="n">
+        <v>330</v>
+      </c>
+      <c r="G117" s="68" t="n">
+        <v>20</v>
+      </c>
+      <c r="H117" s="67" t="n">
+        <v>47</v>
+      </c>
+      <c r="I117" s="68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="118">
       <c r="B118" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13395" yWindow="4380" windowWidth="23700" windowHeight="15540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4782,7 +4782,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="63" t="n">
-        <v>44353.92098366426</v>
+        <v>44353.92098366898</v>
       </c>
       <c r="C117" s="64" t="n">
         <v>66</v>
@@ -4809,13 +4809,97 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" s="5" t="n"/>
+      <c r="A118" s="62" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" s="63" t="n">
+        <v>44354.45220400463</v>
+      </c>
+      <c r="C118" s="64" t="n">
+        <v>73</v>
+      </c>
+      <c r="D118" s="65" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="E118" s="66" t="n">
+        <v>387</v>
+      </c>
+      <c r="F118" s="67" t="n">
+        <v>366</v>
+      </c>
+      <c r="G118" s="68" t="n">
+        <v>21</v>
+      </c>
+      <c r="H118" s="67" t="n">
+        <v>48</v>
+      </c>
+      <c r="I118" s="68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="119">
-      <c r="B119" s="5" t="n"/>
+      <c r="A119" s="62" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" s="63" t="n">
+        <v>44354.45295827546</v>
+      </c>
+      <c r="C119" s="64" t="n">
+        <v>72</v>
+      </c>
+      <c r="D119" s="65" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="E119" s="66" t="n">
+        <v>397</v>
+      </c>
+      <c r="F119" s="67" t="n">
+        <v>360</v>
+      </c>
+      <c r="G119" s="68" t="n">
+        <v>37</v>
+      </c>
+      <c r="H119" s="67" t="n">
+        <v>50</v>
+      </c>
+      <c r="I119" s="68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="120">
-      <c r="B120" s="5" t="n"/>
+      <c r="A120" s="62" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" s="63" t="n">
+        <v>44354.45371599776</v>
+      </c>
+      <c r="C120" s="64" t="n">
+        <v>71</v>
+      </c>
+      <c r="D120" s="65" t="inlineStr">
+        <is>
+          <t>95.66</t>
+        </is>
+      </c>
+      <c r="E120" s="66" t="n">
+        <v>353</v>
+      </c>
+      <c r="F120" s="67" t="n">
+        <v>353</v>
+      </c>
+      <c r="G120" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" s="67" t="n">
+        <v>47</v>
+      </c>
+      <c r="I120" s="68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="B121" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13395" yWindow="4380" windowWidth="23700" windowHeight="15540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4875,7 +4875,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="63" t="n">
-        <v>44354.45371599776</v>
+        <v>44354.45371599537</v>
       </c>
       <c r="C120" s="64" t="n">
         <v>71</v>
@@ -4902,13 +4902,97 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" s="5" t="n"/>
+      <c r="A121" s="62" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" s="63" t="n">
+        <v>44356.51095991898</v>
+      </c>
+      <c r="C121" s="64" t="n">
+        <v>67</v>
+      </c>
+      <c r="D121" s="65" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="E121" s="66" t="n">
+        <v>351</v>
+      </c>
+      <c r="F121" s="67" t="n">
+        <v>333</v>
+      </c>
+      <c r="G121" s="68" t="n">
+        <v>18</v>
+      </c>
+      <c r="H121" s="67" t="n">
+        <v>47</v>
+      </c>
+      <c r="I121" s="68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
-      <c r="B122" s="5" t="n"/>
+      <c r="A122" s="62" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" s="63" t="n">
+        <v>44356.51171375</v>
+      </c>
+      <c r="C122" s="64" t="n">
+        <v>71</v>
+      </c>
+      <c r="D122" s="65" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="E122" s="66" t="n">
+        <v>377</v>
+      </c>
+      <c r="F122" s="67" t="n">
+        <v>354</v>
+      </c>
+      <c r="G122" s="68" t="n">
+        <v>23</v>
+      </c>
+      <c r="H122" s="67" t="n">
+        <v>45</v>
+      </c>
+      <c r="I122" s="68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="123">
-      <c r="B123" s="5" t="n"/>
+      <c r="A123" s="62" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" s="63" t="n">
+        <v>44356.51256996652</v>
+      </c>
+      <c r="C123" s="64" t="n">
+        <v>71</v>
+      </c>
+      <c r="D123" s="65" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="E123" s="66" t="n">
+        <v>374</v>
+      </c>
+      <c r="F123" s="67" t="n">
+        <v>355</v>
+      </c>
+      <c r="G123" s="68" t="n">
+        <v>19</v>
+      </c>
+      <c r="H123" s="67" t="n">
+        <v>51</v>
+      </c>
+      <c r="I123" s="68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="124">
       <c r="B124" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -4968,7 +4968,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="63" t="n">
-        <v>44356.51256996652</v>
+        <v>44356.51256996528</v>
       </c>
       <c r="C123" s="64" t="n">
         <v>71</v>
@@ -4995,10 +4995,66 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" s="5" t="n"/>
+      <c r="A124" s="62" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" s="63" t="n">
+        <v>44357.55681540509</v>
+      </c>
+      <c r="C124" s="64" t="n">
+        <v>73</v>
+      </c>
+      <c r="D124" s="65" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="E124" s="66" t="n">
+        <v>396</v>
+      </c>
+      <c r="F124" s="67" t="n">
+        <v>363</v>
+      </c>
+      <c r="G124" s="68" t="n">
+        <v>33</v>
+      </c>
+      <c r="H124" s="67" t="n">
+        <v>51</v>
+      </c>
+      <c r="I124" s="68" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="125">
-      <c r="B125" s="5" t="n"/>
+      <c r="A125" s="62" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" s="63" t="n">
+        <v>44357.55808075782</v>
+      </c>
+      <c r="C125" s="64" t="n">
+        <v>72</v>
+      </c>
+      <c r="D125" s="65" t="inlineStr">
+        <is>
+          <t>95.23</t>
+        </is>
+      </c>
+      <c r="E125" s="66" t="n">
+        <v>359</v>
+      </c>
+      <c r="F125" s="67" t="n">
+        <v>359</v>
+      </c>
+      <c r="G125" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" s="67" t="n">
+        <v>48</v>
+      </c>
+      <c r="I125" s="68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="B126" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13395" yWindow="4380" windowWidth="23700" windowHeight="15540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -5030,7 +5030,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="63" t="n">
-        <v>44357.55808075782</v>
+        <v>44357.55808075231</v>
       </c>
       <c r="C125" s="64" t="n">
         <v>72</v>
@@ -5057,10 +5057,66 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" s="5" t="n"/>
+      <c r="A126" s="62" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" s="63" t="n">
+        <v>44358.63057476852</v>
+      </c>
+      <c r="C126" s="64" t="n">
+        <v>73</v>
+      </c>
+      <c r="D126" s="65" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="E126" s="66" t="n">
+        <v>378</v>
+      </c>
+      <c r="F126" s="67" t="n">
+        <v>366</v>
+      </c>
+      <c r="G126" s="68" t="n">
+        <v>12</v>
+      </c>
+      <c r="H126" s="67" t="n">
+        <v>52</v>
+      </c>
+      <c r="I126" s="68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
-      <c r="B127" s="5" t="n"/>
+      <c r="A127" s="62" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" s="63" t="n">
+        <v>44358.63170567345</v>
+      </c>
+      <c r="C127" s="64" t="n">
+        <v>75</v>
+      </c>
+      <c r="D127" s="65" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="E127" s="66" t="n">
+        <v>395</v>
+      </c>
+      <c r="F127" s="67" t="n">
+        <v>373</v>
+      </c>
+      <c r="G127" s="68" t="n">
+        <v>22</v>
+      </c>
+      <c r="H127" s="67" t="n">
+        <v>54</v>
+      </c>
+      <c r="I127" s="68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="128">
       <c r="B128" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -5092,7 +5092,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="63" t="n">
-        <v>44358.63170567345</v>
+        <v>44358.63170567129</v>
       </c>
       <c r="C127" s="64" t="n">
         <v>75</v>
@@ -5119,10 +5119,66 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" s="5" t="n"/>
+      <c r="A128" s="62" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" s="63" t="n">
+        <v>44361.45716369213</v>
+      </c>
+      <c r="C128" s="64" t="n">
+        <v>74</v>
+      </c>
+      <c r="D128" s="65" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="E128" s="66" t="n">
+        <v>369</v>
+      </c>
+      <c r="F128" s="67" t="n">
+        <v>369</v>
+      </c>
+      <c r="G128" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" s="67" t="n">
+        <v>51</v>
+      </c>
+      <c r="I128" s="68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
-      <c r="B129" s="5" t="n"/>
+      <c r="A129" s="62" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" s="63" t="n">
+        <v>44361.45975163684</v>
+      </c>
+      <c r="C129" s="64" t="n">
+        <v>73</v>
+      </c>
+      <c r="D129" s="65" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="E129" s="66" t="n">
+        <v>383</v>
+      </c>
+      <c r="F129" s="67" t="n">
+        <v>366</v>
+      </c>
+      <c r="G129" s="68" t="n">
+        <v>17</v>
+      </c>
+      <c r="H129" s="67" t="n">
+        <v>47</v>
+      </c>
+      <c r="I129" s="68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="130">
       <c r="B130" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13395" yWindow="4380" windowWidth="23700" windowHeight="15540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -5092,7 +5092,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="63" t="n">
-        <v>44358.63170567345</v>
+        <v>44358.63170567129</v>
       </c>
       <c r="C127" s="64" t="n">
         <v>75</v>
@@ -5119,10 +5119,66 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" s="5" t="n"/>
+      <c r="A128" s="62" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" s="63" t="n">
+        <v>44363.50973638889</v>
+      </c>
+      <c r="C128" s="64" t="n">
+        <v>74</v>
+      </c>
+      <c r="D128" s="65" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="E128" s="66" t="n">
+        <v>377</v>
+      </c>
+      <c r="F128" s="67" t="n">
+        <v>368</v>
+      </c>
+      <c r="G128" s="68" t="n">
+        <v>9</v>
+      </c>
+      <c r="H128" s="67" t="n">
+        <v>53</v>
+      </c>
+      <c r="I128" s="68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="129">
-      <c r="B129" s="5" t="n"/>
+      <c r="A129" s="62" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" s="63" t="n">
+        <v>44363.51051461105</v>
+      </c>
+      <c r="C129" s="64" t="n">
+        <v>78</v>
+      </c>
+      <c r="D129" s="65" t="inlineStr">
+        <is>
+          <t>95.8</t>
+        </is>
+      </c>
+      <c r="E129" s="66" t="n">
+        <v>388</v>
+      </c>
+      <c r="F129" s="67" t="n">
+        <v>388</v>
+      </c>
+      <c r="G129" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" s="67" t="n">
+        <v>54</v>
+      </c>
+      <c r="I129" s="68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="B130" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -5278,7 +5278,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="63" t="n">
-        <v>44365.51631434654</v>
+        <v>44365.51631435185</v>
       </c>
       <c r="C133" s="64" t="n">
         <v>69</v>
@@ -5305,10 +5305,66 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" s="5" t="n"/>
+      <c r="A134" s="62" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" s="63" t="n">
+        <v>44367.81078185185</v>
+      </c>
+      <c r="C134" s="64" t="n">
+        <v>74</v>
+      </c>
+      <c r="D134" s="65" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="E134" s="66" t="n">
+        <v>380</v>
+      </c>
+      <c r="F134" s="67" t="n">
+        <v>371</v>
+      </c>
+      <c r="G134" s="68" t="n">
+        <v>9</v>
+      </c>
+      <c r="H134" s="67" t="n">
+        <v>51</v>
+      </c>
+      <c r="I134" s="68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
-      <c r="B135" s="5" t="n"/>
+      <c r="A135" s="62" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" s="63" t="n">
+        <v>44367.81158163932</v>
+      </c>
+      <c r="C135" s="64" t="n">
+        <v>64</v>
+      </c>
+      <c r="D135" s="65" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="E135" s="66" t="n">
+        <v>342</v>
+      </c>
+      <c r="F135" s="67" t="n">
+        <v>320</v>
+      </c>
+      <c r="G135" s="68" t="n">
+        <v>22</v>
+      </c>
+      <c r="H135" s="67" t="n">
+        <v>48</v>
+      </c>
+      <c r="I135" s="68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="136">
       <c r="B136" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -5340,7 +5340,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="63" t="n">
-        <v>44367.81158163932</v>
+        <v>44367.81158164352</v>
       </c>
       <c r="C135" s="64" t="n">
         <v>64</v>
@@ -5367,10 +5367,66 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" s="5" t="n"/>
+      <c r="A136" s="62" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" s="63" t="n">
+        <v>44368.68482273148</v>
+      </c>
+      <c r="C136" s="64" t="n">
+        <v>73</v>
+      </c>
+      <c r="D136" s="65" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="E136" s="66" t="n">
+        <v>382</v>
+      </c>
+      <c r="F136" s="67" t="n">
+        <v>367</v>
+      </c>
+      <c r="G136" s="68" t="n">
+        <v>15</v>
+      </c>
+      <c r="H136" s="67" t="n">
+        <v>51</v>
+      </c>
+      <c r="I136" s="68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="137">
-      <c r="B137" s="5" t="n"/>
+      <c r="A137" s="62" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" s="63" t="n">
+        <v>44368.68558184086</v>
+      </c>
+      <c r="C137" s="64" t="n">
+        <v>77</v>
+      </c>
+      <c r="D137" s="65" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="E137" s="66" t="n">
+        <v>411</v>
+      </c>
+      <c r="F137" s="67" t="n">
+        <v>384</v>
+      </c>
+      <c r="G137" s="68" t="n">
+        <v>27</v>
+      </c>
+      <c r="H137" s="67" t="n">
+        <v>52</v>
+      </c>
+      <c r="I137" s="68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="138">
       <c r="B138" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -5402,7 +5402,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="63" t="n">
-        <v>44368.68558184086</v>
+        <v>44368.68558184028</v>
       </c>
       <c r="C137" s="64" t="n">
         <v>77</v>
@@ -5429,10 +5429,66 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" s="5" t="n"/>
+      <c r="A138" s="62" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" s="63" t="n">
+        <v>44370.61152956018</v>
+      </c>
+      <c r="C138" s="64" t="n">
+        <v>76</v>
+      </c>
+      <c r="D138" s="65" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="E138" s="66" t="n">
+        <v>379</v>
+      </c>
+      <c r="F138" s="67" t="n">
+        <v>379</v>
+      </c>
+      <c r="G138" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" s="67" t="n">
+        <v>54</v>
+      </c>
+      <c r="I138" s="68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
-      <c r="B139" s="5" t="n"/>
+      <c r="A139" s="62" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" s="63" t="n">
+        <v>44370.61295861061</v>
+      </c>
+      <c r="C139" s="64" t="n">
+        <v>78</v>
+      </c>
+      <c r="D139" s="65" t="inlineStr">
+        <is>
+          <t>96.05</t>
+        </is>
+      </c>
+      <c r="E139" s="66" t="n">
+        <v>393</v>
+      </c>
+      <c r="F139" s="67" t="n">
+        <v>389</v>
+      </c>
+      <c r="G139" s="68" t="n">
+        <v>4</v>
+      </c>
+      <c r="H139" s="67" t="n">
+        <v>55</v>
+      </c>
+      <c r="I139" s="68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="B140" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -5464,7 +5464,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="63" t="n">
-        <v>44370.61295861061</v>
+        <v>44370.61295861111</v>
       </c>
       <c r="C139" s="64" t="n">
         <v>78</v>
@@ -5491,10 +5491,66 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" s="5" t="n"/>
+      <c r="A140" s="62" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" s="63" t="n">
+        <v>44371.5485603125</v>
+      </c>
+      <c r="C140" s="64" t="n">
+        <v>74</v>
+      </c>
+      <c r="D140" s="65" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="E140" s="66" t="n">
+        <v>384</v>
+      </c>
+      <c r="F140" s="67" t="n">
+        <v>369</v>
+      </c>
+      <c r="G140" s="68" t="n">
+        <v>15</v>
+      </c>
+      <c r="H140" s="67" t="n">
+        <v>50</v>
+      </c>
+      <c r="I140" s="68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="141">
-      <c r="B141" s="5" t="n"/>
+      <c r="A141" s="62" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" s="63" t="n">
+        <v>44371.54932710966</v>
+      </c>
+      <c r="C141" s="64" t="n">
+        <v>73</v>
+      </c>
+      <c r="D141" s="65" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="E141" s="66" t="n">
+        <v>370</v>
+      </c>
+      <c r="F141" s="67" t="n">
+        <v>364</v>
+      </c>
+      <c r="G141" s="68" t="n">
+        <v>6</v>
+      </c>
+      <c r="H141" s="67" t="n">
+        <v>51</v>
+      </c>
+      <c r="I141" s="68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="142">
       <c r="B142" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -5526,7 +5526,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="63" t="n">
-        <v>44371.54932710966</v>
+        <v>44371.54932710648</v>
       </c>
       <c r="C141" s="64" t="n">
         <v>73</v>
@@ -5553,10 +5553,66 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" s="5" t="n"/>
+      <c r="A142" s="62" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" s="63" t="n">
+        <v>44372.65839247685</v>
+      </c>
+      <c r="C142" s="64" t="n">
+        <v>64</v>
+      </c>
+      <c r="D142" s="65" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="E142" s="66" t="n">
+        <v>339</v>
+      </c>
+      <c r="F142" s="67" t="n">
+        <v>318</v>
+      </c>
+      <c r="G142" s="68" t="n">
+        <v>21</v>
+      </c>
+      <c r="H142" s="67" t="n">
+        <v>44</v>
+      </c>
+      <c r="I142" s="68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="143">
-      <c r="B143" s="5" t="n"/>
+      <c r="A143" s="62" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" s="63" t="n">
+        <v>44372.65914696058</v>
+      </c>
+      <c r="C143" s="64" t="n">
+        <v>72</v>
+      </c>
+      <c r="D143" s="65" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="E143" s="66" t="n">
+        <v>365</v>
+      </c>
+      <c r="F143" s="67" t="n">
+        <v>359</v>
+      </c>
+      <c r="G143" s="68" t="n">
+        <v>6</v>
+      </c>
+      <c r="H143" s="67" t="n">
+        <v>48</v>
+      </c>
+      <c r="I143" s="68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="B144" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -5588,7 +5588,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="63" t="n">
-        <v>44372.65914696058</v>
+        <v>44372.65914695602</v>
       </c>
       <c r="C143" s="64" t="n">
         <v>72</v>
@@ -5615,7 +5615,35 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" s="5" t="n"/>
+      <c r="A144" s="62" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" s="63" t="n">
+        <v>44386.58374247176</v>
+      </c>
+      <c r="C144" s="64" t="n">
+        <v>69</v>
+      </c>
+      <c r="D144" s="65" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="E144" s="66" t="n">
+        <v>347</v>
+      </c>
+      <c r="F144" s="67" t="n">
+        <v>347</v>
+      </c>
+      <c r="G144" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" s="67" t="n">
+        <v>44</v>
+      </c>
+      <c r="I144" s="68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="B145" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -5619,7 +5619,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="63" t="n">
-        <v>44386.58374247176</v>
+        <v>44386.58374247685</v>
       </c>
       <c r="C144" s="64" t="n">
         <v>69</v>
@@ -5646,10 +5646,66 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" s="5" t="n"/>
+      <c r="A145" s="62" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" s="63" t="n">
+        <v>44389.47960208333</v>
+      </c>
+      <c r="C145" s="64" t="n">
+        <v>72</v>
+      </c>
+      <c r="D145" s="65" t="inlineStr">
+        <is>
+          <t>96.53</t>
+        </is>
+      </c>
+      <c r="E145" s="66" t="n">
+        <v>362</v>
+      </c>
+      <c r="F145" s="67" t="n">
+        <v>362</v>
+      </c>
+      <c r="G145" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" s="67" t="n">
+        <v>48</v>
+      </c>
+      <c r="I145" s="68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
-      <c r="B146" s="5" t="n"/>
+      <c r="A146" s="62" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" s="63" t="n">
+        <v>44389.48036061316</v>
+      </c>
+      <c r="C146" s="64" t="n">
+        <v>73</v>
+      </c>
+      <c r="D146" s="65" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="E146" s="66" t="n">
+        <v>371</v>
+      </c>
+      <c r="F146" s="67" t="n">
+        <v>363</v>
+      </c>
+      <c r="G146" s="68" t="n">
+        <v>8</v>
+      </c>
+      <c r="H146" s="67" t="n">
+        <v>50</v>
+      </c>
+      <c r="I146" s="68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="147">
       <c r="B147" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -5681,7 +5681,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="63" t="n">
-        <v>44389.48036061316</v>
+        <v>44389.48036061342</v>
       </c>
       <c r="C146" s="64" t="n">
         <v>73</v>
@@ -5708,13 +5708,97 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" s="5" t="n"/>
+      <c r="A147" s="62" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" s="63" t="n">
+        <v>44393.4797125</v>
+      </c>
+      <c r="C147" s="64" t="n">
+        <v>67</v>
+      </c>
+      <c r="D147" s="65" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="E147" s="66" t="n">
+        <v>348</v>
+      </c>
+      <c r="F147" s="67" t="n">
+        <v>334</v>
+      </c>
+      <c r="G147" s="68" t="n">
+        <v>14</v>
+      </c>
+      <c r="H147" s="67" t="n">
+        <v>43</v>
+      </c>
+      <c r="I147" s="68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="148">
-      <c r="B148" s="5" t="n"/>
+      <c r="A148" s="62" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" s="63" t="n">
+        <v>44393.480604375</v>
+      </c>
+      <c r="C148" s="64" t="n">
+        <v>72</v>
+      </c>
+      <c r="D148" s="65" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="E148" s="66" t="n">
+        <v>383</v>
+      </c>
+      <c r="F148" s="67" t="n">
+        <v>360</v>
+      </c>
+      <c r="G148" s="68" t="n">
+        <v>23</v>
+      </c>
+      <c r="H148" s="67" t="n">
+        <v>52</v>
+      </c>
+      <c r="I148" s="68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="149">
-      <c r="B149" s="5" t="n"/>
+      <c r="A149" s="62" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" s="63" t="n">
+        <v>44393.48156782007</v>
+      </c>
+      <c r="C149" s="64" t="n">
+        <v>72</v>
+      </c>
+      <c r="D149" s="65" t="inlineStr">
+        <is>
+          <t>97.29</t>
+        </is>
+      </c>
+      <c r="E149" s="66" t="n">
+        <v>359</v>
+      </c>
+      <c r="F149" s="67" t="n">
+        <v>359</v>
+      </c>
+      <c r="G149" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" s="67" t="n">
+        <v>53</v>
+      </c>
+      <c r="I149" s="68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="B150" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -5774,7 +5774,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="63" t="n">
-        <v>44393.48156782007</v>
+        <v>44393.48156782408</v>
       </c>
       <c r="C149" s="64" t="n">
         <v>72</v>
@@ -5801,10 +5801,66 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" s="5" t="n"/>
+      <c r="A150" s="62" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" s="63" t="n">
+        <v>44396.53387789352</v>
+      </c>
+      <c r="C150" s="64" t="n">
+        <v>68</v>
+      </c>
+      <c r="D150" s="65" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="E150" s="66" t="n">
+        <v>357</v>
+      </c>
+      <c r="F150" s="67" t="n">
+        <v>341</v>
+      </c>
+      <c r="G150" s="68" t="n">
+        <v>16</v>
+      </c>
+      <c r="H150" s="67" t="n">
+        <v>43</v>
+      </c>
+      <c r="I150" s="68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="151">
-      <c r="B151" s="5" t="n"/>
+      <c r="A151" s="62" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" s="63" t="n">
+        <v>44396.53464911858</v>
+      </c>
+      <c r="C151" s="64" t="n">
+        <v>65</v>
+      </c>
+      <c r="D151" s="65" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="E151" s="66" t="n">
+        <v>329</v>
+      </c>
+      <c r="F151" s="67" t="n">
+        <v>323</v>
+      </c>
+      <c r="G151" s="68" t="n">
+        <v>6</v>
+      </c>
+      <c r="H151" s="67" t="n">
+        <v>41</v>
+      </c>
+      <c r="I151" s="68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="152">
       <c r="B152" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -124,6 +124,17 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <strike val="0"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
@@ -136,12 +147,48 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="56">
+  <fills count="62">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF9BC2E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FFA9D08E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDD5151"/>
+        <bgColor rgb="FFDD5151"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -468,7 +515,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -589,6 +636,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <right style="thick"/>
       <bottom style="thin"/>
     </border>
@@ -596,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -800,6 +858,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="55" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="56" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="57" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="58" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="57" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="59" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="60" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="61" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1148,8 +1227,8 @@
   <dimension ref="A1:I4434"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G146" sqref="G146"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S123" sqref="S123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5836,7 +5915,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="63" t="n">
-        <v>44396.53464911858</v>
+        <v>44396.53464912037</v>
       </c>
       <c r="C151" s="64" t="n">
         <v>65</v>
@@ -5863,10 +5942,66 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" s="5" t="n"/>
+      <c r="A152" s="62" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" s="63" t="n">
+        <v>44400.41672019676</v>
+      </c>
+      <c r="C152" s="64" t="n">
+        <v>76</v>
+      </c>
+      <c r="D152" s="65" t="inlineStr">
+        <is>
+          <t>95.7</t>
+        </is>
+      </c>
+      <c r="E152" s="66" t="n">
+        <v>385</v>
+      </c>
+      <c r="F152" s="67" t="n">
+        <v>378</v>
+      </c>
+      <c r="G152" s="68" t="n">
+        <v>7</v>
+      </c>
+      <c r="H152" s="67" t="n">
+        <v>46</v>
+      </c>
+      <c r="I152" s="68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="153">
-      <c r="B153" s="5" t="n"/>
+      <c r="A153" s="69" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" s="70" t="n">
+        <v>44400.41881573631</v>
+      </c>
+      <c r="C153" s="71" t="n">
+        <v>65</v>
+      </c>
+      <c r="D153" s="72" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="E153" s="73" t="n">
+        <v>345</v>
+      </c>
+      <c r="F153" s="74" t="n">
+        <v>323</v>
+      </c>
+      <c r="G153" s="75" t="n">
+        <v>22</v>
+      </c>
+      <c r="H153" s="74" t="n">
+        <v>46</v>
+      </c>
+      <c r="I153" s="75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="154">
       <c r="B154" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -5977,7 +5977,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="70" t="n">
-        <v>44400.41881573631</v>
+        <v>44400.41881574074</v>
       </c>
       <c r="C153" s="71" t="n">
         <v>65</v>
@@ -6004,10 +6004,66 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" s="5" t="n"/>
+      <c r="A154" s="69" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" s="70" t="n">
+        <v>44401.52800622685</v>
+      </c>
+      <c r="C154" s="71" t="n">
+        <v>64</v>
+      </c>
+      <c r="D154" s="72" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="E154" s="73" t="n">
+        <v>318</v>
+      </c>
+      <c r="F154" s="74" t="n">
+        <v>318</v>
+      </c>
+      <c r="G154" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" s="74" t="n">
+        <v>45</v>
+      </c>
+      <c r="I154" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
-      <c r="B155" s="5" t="n"/>
+      <c r="A155" s="69" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" s="70" t="n">
+        <v>44401.52875918674</v>
+      </c>
+      <c r="C155" s="71" t="n">
+        <v>64</v>
+      </c>
+      <c r="D155" s="72" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="E155" s="73" t="n">
+        <v>332</v>
+      </c>
+      <c r="F155" s="74" t="n">
+        <v>319</v>
+      </c>
+      <c r="G155" s="75" t="n">
+        <v>13</v>
+      </c>
+      <c r="H155" s="74" t="n">
+        <v>43</v>
+      </c>
+      <c r="I155" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="B156" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Projects\WPMTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB237AFF-548B-4A5F-8343-7ADF18E952C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CD2426-487E-469A-8A57-216658364548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,19 +609,8 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="62">
+  <fills count="56">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -952,44 +941,8 @@
         <bgColor rgb="FFDD5151"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9BC2E6"/>
-        <bgColor rgb="FF9BC2E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD0CECE"/>
-        <bgColor rgb="FFD0CECE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9D08E"/>
-        <bgColor rgb="FFA9D08E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDD5151"/>
-        <bgColor rgb="FFDD5151"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1120,22 +1073,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1339,48 +1281,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="55" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="56" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="57" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="58" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="57" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="59" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="60" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="61" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="56" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="57" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="58" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="57" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="59" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="60" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="61" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1666,8 +1566,8 @@
   <dimension ref="A1:I4434"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F166" sqref="F166"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R142" sqref="R142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6005,263 +5905,263 @@
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="62">
+      <c r="A150" s="55">
         <v>149</v>
       </c>
-      <c r="B150" s="63">
+      <c r="B150" s="56">
         <v>44396.533877893518</v>
       </c>
-      <c r="C150" s="64">
+      <c r="C150" s="57">
         <v>68</v>
       </c>
-      <c r="D150" s="65" t="s">
+      <c r="D150" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="E150" s="66">
+      <c r="E150" s="59">
         <v>357</v>
       </c>
-      <c r="F150" s="67">
+      <c r="F150" s="60">
         <v>341</v>
       </c>
-      <c r="G150" s="68">
+      <c r="G150" s="61">
         <v>16</v>
       </c>
-      <c r="H150" s="67">
+      <c r="H150" s="60">
         <v>43</v>
       </c>
-      <c r="I150" s="68">
+      <c r="I150" s="61">
         <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="62">
+      <c r="A151" s="55">
         <v>150</v>
       </c>
-      <c r="B151" s="63">
+      <c r="B151" s="56">
         <v>44396.534649120367</v>
       </c>
-      <c r="C151" s="64">
+      <c r="C151" s="57">
         <v>65</v>
       </c>
-      <c r="D151" s="65" t="s">
+      <c r="D151" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="E151" s="66">
+      <c r="E151" s="59">
         <v>329</v>
       </c>
-      <c r="F151" s="67">
+      <c r="F151" s="60">
         <v>323</v>
       </c>
-      <c r="G151" s="68">
+      <c r="G151" s="61">
         <v>6</v>
       </c>
-      <c r="H151" s="67">
+      <c r="H151" s="60">
         <v>41</v>
       </c>
-      <c r="I151" s="68">
+      <c r="I151" s="61">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="62">
+      <c r="A152" s="55">
         <v>151</v>
       </c>
-      <c r="B152" s="63">
+      <c r="B152" s="56">
         <v>44400.416720196758</v>
       </c>
-      <c r="C152" s="64">
+      <c r="C152" s="57">
         <v>76</v>
       </c>
-      <c r="D152" s="65" t="s">
+      <c r="D152" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="E152" s="66">
+      <c r="E152" s="59">
         <v>385</v>
       </c>
-      <c r="F152" s="67">
+      <c r="F152" s="60">
         <v>378</v>
       </c>
-      <c r="G152" s="68">
+      <c r="G152" s="61">
         <v>7</v>
       </c>
-      <c r="H152" s="67">
+      <c r="H152" s="60">
         <v>46</v>
       </c>
-      <c r="I152" s="68">
+      <c r="I152" s="61">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="69">
+      <c r="A153" s="55">
         <v>152</v>
       </c>
-      <c r="B153" s="70">
+      <c r="B153" s="56">
         <v>44400.418815740741</v>
       </c>
-      <c r="C153" s="71">
+      <c r="C153" s="57">
         <v>65</v>
       </c>
-      <c r="D153" s="72" t="s">
+      <c r="D153" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="E153" s="73">
+      <c r="E153" s="59">
         <v>345</v>
       </c>
-      <c r="F153" s="74">
+      <c r="F153" s="60">
         <v>323</v>
       </c>
-      <c r="G153" s="75">
+      <c r="G153" s="61">
         <v>22</v>
       </c>
-      <c r="H153" s="74">
+      <c r="H153" s="60">
         <v>46</v>
       </c>
-      <c r="I153" s="75">
+      <c r="I153" s="61">
         <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="76">
+      <c r="A154" s="55">
         <v>153</v>
       </c>
-      <c r="B154" s="77">
+      <c r="B154" s="56">
         <v>44401.52800622685</v>
       </c>
-      <c r="C154" s="78">
+      <c r="C154" s="57">
         <v>64</v>
       </c>
-      <c r="D154" s="79" t="s">
+      <c r="D154" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="E154" s="80">
+      <c r="E154" s="59">
         <v>318</v>
       </c>
-      <c r="F154" s="81">
+      <c r="F154" s="60">
         <v>318</v>
       </c>
-      <c r="G154" s="82">
+      <c r="G154" s="61">
         <v>0</v>
       </c>
-      <c r="H154" s="81">
+      <c r="H154" s="60">
         <v>45</v>
       </c>
-      <c r="I154" s="82">
+      <c r="I154" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="76">
+      <c r="A155" s="55">
         <v>154</v>
       </c>
-      <c r="B155" s="77">
-        <v>44401.528759186738</v>
-      </c>
-      <c r="C155" s="78">
+      <c r="B155" s="56">
+        <v>44401.528759189823</v>
+      </c>
+      <c r="C155" s="57">
         <v>64</v>
       </c>
-      <c r="D155" s="79" t="s">
+      <c r="D155" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="E155" s="80">
+      <c r="E155" s="59">
         <v>332</v>
       </c>
-      <c r="F155" s="81">
+      <c r="F155" s="60">
         <v>319</v>
       </c>
-      <c r="G155" s="82">
+      <c r="G155" s="61">
         <v>13</v>
       </c>
-      <c r="H155" s="81">
+      <c r="H155" s="60">
         <v>43</v>
       </c>
-      <c r="I155" s="82">
+      <c r="I155" s="61">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="69">
+      <c r="A156" s="55">
         <v>155</v>
       </c>
-      <c r="B156" s="70">
+      <c r="B156" s="56">
         <v>44403.462766145843</v>
       </c>
-      <c r="C156" s="71">
+      <c r="C156" s="57">
         <v>70</v>
       </c>
-      <c r="D156" s="72" t="s">
+      <c r="D156" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="E156" s="73">
+      <c r="E156" s="59">
         <v>364</v>
       </c>
-      <c r="F156" s="74">
+      <c r="F156" s="60">
         <v>352</v>
       </c>
-      <c r="G156" s="75">
+      <c r="G156" s="61">
         <v>12</v>
       </c>
-      <c r="H156" s="74">
+      <c r="H156" s="60">
         <v>45</v>
       </c>
-      <c r="I156" s="75">
+      <c r="I156" s="61">
         <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="69">
+      <c r="A157" s="55">
         <v>156</v>
       </c>
-      <c r="B157" s="70">
+      <c r="B157" s="56">
         <v>44403.46353335648</v>
       </c>
-      <c r="C157" s="71">
+      <c r="C157" s="57">
         <v>74</v>
       </c>
-      <c r="D157" s="72" t="s">
+      <c r="D157" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="E157" s="73">
+      <c r="E157" s="59">
         <v>384</v>
       </c>
-      <c r="F157" s="74">
+      <c r="F157" s="60">
         <v>368</v>
       </c>
-      <c r="G157" s="75">
+      <c r="G157" s="61">
         <v>16</v>
       </c>
-      <c r="H157" s="74">
+      <c r="H157" s="60">
         <v>50</v>
       </c>
-      <c r="I157" s="75">
+      <c r="I157" s="61">
         <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="69">
+      <c r="A158" s="55">
         <v>157</v>
       </c>
-      <c r="B158" s="70">
-        <v>44403.464315685611</v>
-      </c>
-      <c r="C158" s="71">
+      <c r="B158" s="56">
+        <v>44403.464315682868</v>
+      </c>
+      <c r="C158" s="57">
         <v>79</v>
       </c>
-      <c r="D158" s="72" t="s">
+      <c r="D158" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="E158" s="73">
+      <c r="E158" s="59">
         <v>399</v>
       </c>
-      <c r="F158" s="74">
+      <c r="F158" s="60">
         <v>393</v>
       </c>
-      <c r="G158" s="75">
+      <c r="G158" s="61">
         <v>6</v>
       </c>
-      <c r="H158" s="74">
+      <c r="H158" s="60">
         <v>55</v>
       </c>
-      <c r="I158" s="75">
+      <c r="I158" s="61">
         <v>1</v>
       </c>
     </row>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -6225,7 +6225,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="70" t="n">
-        <v>44406.50907537369</v>
+        <v>44406.50907537037</v>
       </c>
       <c r="C161" s="71" t="n">
         <v>75</v>
@@ -6252,13 +6252,97 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" s="5" t="n"/>
+      <c r="A162" s="69" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" s="70" t="n">
+        <v>44407.44097237269</v>
+      </c>
+      <c r="C162" s="71" t="n">
+        <v>81</v>
+      </c>
+      <c r="D162" s="72" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="E162" s="73" t="n">
+        <v>406</v>
+      </c>
+      <c r="F162" s="74" t="n">
+        <v>406</v>
+      </c>
+      <c r="G162" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" s="74" t="n">
+        <v>55</v>
+      </c>
+      <c r="I162" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
-      <c r="B163" s="5" t="n"/>
+      <c r="A163" s="69" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" s="70" t="n">
+        <v>44407.44173688658</v>
+      </c>
+      <c r="C163" s="71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D163" s="72" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="E163" s="73" t="n">
+        <v>353</v>
+      </c>
+      <c r="F163" s="74" t="n">
+        <v>346</v>
+      </c>
+      <c r="G163" s="75" t="n">
+        <v>7</v>
+      </c>
+      <c r="H163" s="74" t="n">
+        <v>50</v>
+      </c>
+      <c r="I163" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
-      <c r="B164" s="5" t="n"/>
+      <c r="A164" s="69" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" s="70" t="n">
+        <v>44407.44285488735</v>
+      </c>
+      <c r="C164" s="71" t="n">
+        <v>73</v>
+      </c>
+      <c r="D164" s="72" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="E164" s="73" t="n">
+        <v>390</v>
+      </c>
+      <c r="F164" s="74" t="n">
+        <v>367</v>
+      </c>
+      <c r="G164" s="75" t="n">
+        <v>23</v>
+      </c>
+      <c r="H164" s="74" t="n">
+        <v>51</v>
+      </c>
+      <c r="I164" s="75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="165">
       <c r="B165" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -6318,7 +6318,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="70" t="n">
-        <v>44407.44285488735</v>
+        <v>44407.44285488426</v>
       </c>
       <c r="C164" s="71" t="n">
         <v>73</v>
@@ -6345,13 +6345,97 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" s="5" t="n"/>
+      <c r="A165" s="69" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" s="70" t="n">
+        <v>44410.45399925926</v>
+      </c>
+      <c r="C165" s="71" t="n">
+        <v>64</v>
+      </c>
+      <c r="D165" s="72" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="E165" s="73" t="n">
+        <v>356</v>
+      </c>
+      <c r="F165" s="74" t="n">
+        <v>320</v>
+      </c>
+      <c r="G165" s="75" t="n">
+        <v>36</v>
+      </c>
+      <c r="H165" s="74" t="n">
+        <v>42</v>
+      </c>
+      <c r="I165" s="75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="166">
-      <c r="B166" s="5" t="n"/>
+      <c r="A166" s="69" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" s="70" t="n">
+        <v>44410.45540041666</v>
+      </c>
+      <c r="C166" s="71" t="n">
+        <v>74</v>
+      </c>
+      <c r="D166" s="72" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="E166" s="73" t="n">
+        <v>372</v>
+      </c>
+      <c r="F166" s="74" t="n">
+        <v>372</v>
+      </c>
+      <c r="G166" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" s="74" t="n">
+        <v>49</v>
+      </c>
+      <c r="I166" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
-      <c r="B167" s="5" t="n"/>
+      <c r="A167" s="69" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" s="70" t="n">
+        <v>44410.45621835753</v>
+      </c>
+      <c r="C167" s="71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D167" s="72" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="E167" s="73" t="n">
+        <v>352</v>
+      </c>
+      <c r="F167" s="74" t="n">
+        <v>343</v>
+      </c>
+      <c r="G167" s="75" t="n">
+        <v>9</v>
+      </c>
+      <c r="H167" s="74" t="n">
+        <v>48</v>
+      </c>
+      <c r="I167" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="B168" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -6411,7 +6411,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="70" t="n">
-        <v>44410.45621835753</v>
+        <v>44410.45621835648</v>
       </c>
       <c r="C167" s="71" t="n">
         <v>69</v>
@@ -6438,13 +6438,97 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" s="5" t="n"/>
+      <c r="A168" s="69" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" s="70" t="n">
+        <v>44414.52773537037</v>
+      </c>
+      <c r="C168" s="71" t="n">
+        <v>74</v>
+      </c>
+      <c r="D168" s="72" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="E168" s="73" t="n">
+        <v>382</v>
+      </c>
+      <c r="F168" s="74" t="n">
+        <v>369</v>
+      </c>
+      <c r="G168" s="75" t="n">
+        <v>13</v>
+      </c>
+      <c r="H168" s="74" t="n">
+        <v>51</v>
+      </c>
+      <c r="I168" s="75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="169">
-      <c r="B169" s="5" t="n"/>
+      <c r="A169" s="69" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" s="70" t="n">
+        <v>44414.52856806713</v>
+      </c>
+      <c r="C169" s="71" t="n">
+        <v>68</v>
+      </c>
+      <c r="D169" s="72" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="E169" s="73" t="n">
+        <v>340</v>
+      </c>
+      <c r="F169" s="74" t="n">
+        <v>340</v>
+      </c>
+      <c r="G169" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" s="74" t="n">
+        <v>43</v>
+      </c>
+      <c r="I169" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
-      <c r="B170" s="5" t="n"/>
+      <c r="A170" s="69" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" s="70" t="n">
+        <v>44414.52935447393</v>
+      </c>
+      <c r="C170" s="71" t="n">
+        <v>70</v>
+      </c>
+      <c r="D170" s="72" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="E170" s="73" t="n">
+        <v>373</v>
+      </c>
+      <c r="F170" s="74" t="n">
+        <v>349</v>
+      </c>
+      <c r="G170" s="75" t="n">
+        <v>24</v>
+      </c>
+      <c r="H170" s="74" t="n">
+        <v>45</v>
+      </c>
+      <c r="I170" s="75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="171">
       <c r="B171" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -6504,7 +6504,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="70" t="n">
-        <v>44414.52935447393</v>
+        <v>44414.52935447916</v>
       </c>
       <c r="C170" s="71" t="n">
         <v>70</v>
@@ -6531,10 +6531,66 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" s="5" t="n"/>
+      <c r="A171" s="69" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" s="70" t="n">
+        <v>44415.57082009259</v>
+      </c>
+      <c r="C171" s="71" t="n">
+        <v>74</v>
+      </c>
+      <c r="D171" s="72" t="inlineStr">
+        <is>
+          <t>94.6</t>
+        </is>
+      </c>
+      <c r="E171" s="73" t="n">
+        <v>368</v>
+      </c>
+      <c r="F171" s="74" t="n">
+        <v>368</v>
+      </c>
+      <c r="G171" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" s="74" t="n">
+        <v>49</v>
+      </c>
+      <c r="I171" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
-      <c r="B172" s="5" t="n"/>
+      <c r="A172" s="69" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" s="70" t="n">
+        <v>44415.57170478679</v>
+      </c>
+      <c r="C172" s="71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D172" s="72" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="E172" s="73" t="n">
+        <v>358</v>
+      </c>
+      <c r="F172" s="74" t="n">
+        <v>346</v>
+      </c>
+      <c r="G172" s="75" t="n">
+        <v>12</v>
+      </c>
+      <c r="H172" s="74" t="n">
+        <v>48</v>
+      </c>
+      <c r="I172" s="75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="B173" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -6566,7 +6566,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="70" t="n">
-        <v>44415.57170478679</v>
+        <v>44415.57170479167</v>
       </c>
       <c r="C172" s="71" t="n">
         <v>69</v>
@@ -6593,13 +6593,97 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" s="5" t="n"/>
+      <c r="A173" s="69" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" s="70" t="n">
+        <v>44417.4501433912</v>
+      </c>
+      <c r="C173" s="71" t="n">
+        <v>68</v>
+      </c>
+      <c r="D173" s="72" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="E173" s="73" t="n">
+        <v>363</v>
+      </c>
+      <c r="F173" s="74" t="n">
+        <v>341</v>
+      </c>
+      <c r="G173" s="75" t="n">
+        <v>22</v>
+      </c>
+      <c r="H173" s="74" t="n">
+        <v>49</v>
+      </c>
+      <c r="I173" s="75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
-      <c r="B174" s="5" t="n"/>
+      <c r="A174" s="69" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" s="70" t="n">
+        <v>44417.45104444445</v>
+      </c>
+      <c r="C174" s="71" t="n">
+        <v>70</v>
+      </c>
+      <c r="D174" s="72" t="inlineStr">
+        <is>
+          <t>96.15</t>
+        </is>
+      </c>
+      <c r="E174" s="73" t="n">
+        <v>350</v>
+      </c>
+      <c r="F174" s="74" t="n">
+        <v>350</v>
+      </c>
+      <c r="G174" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" s="74" t="n">
+        <v>50</v>
+      </c>
+      <c r="I174" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
-      <c r="B175" s="5" t="n"/>
+      <c r="A175" s="69" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" s="70" t="n">
+        <v>44417.4522665783</v>
+      </c>
+      <c r="C175" s="71" t="n">
+        <v>68</v>
+      </c>
+      <c r="D175" s="72" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="E175" s="73" t="n">
+        <v>348</v>
+      </c>
+      <c r="F175" s="74" t="n">
+        <v>340</v>
+      </c>
+      <c r="G175" s="75" t="n">
+        <v>8</v>
+      </c>
+      <c r="H175" s="74" t="n">
+        <v>50</v>
+      </c>
+      <c r="I175" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="B176" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -6659,7 +6659,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="70" t="n">
-        <v>44417.4522665783</v>
+        <v>44417.45226657407</v>
       </c>
       <c r="C175" s="71" t="n">
         <v>68</v>
@@ -6686,7 +6686,35 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" s="5" t="n"/>
+      <c r="A176" s="69" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" s="70" t="n">
+        <v>44419.44894936838</v>
+      </c>
+      <c r="C176" s="71" t="n">
+        <v>70</v>
+      </c>
+      <c r="D176" s="72" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="E176" s="73" t="n">
+        <v>369</v>
+      </c>
+      <c r="F176" s="74" t="n">
+        <v>349</v>
+      </c>
+      <c r="G176" s="75" t="n">
+        <v>20</v>
+      </c>
+      <c r="H176" s="74" t="n">
+        <v>48</v>
+      </c>
+      <c r="I176" s="75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="177">
       <c r="B177" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -6690,7 +6690,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="70" t="n">
-        <v>44419.44894936838</v>
+        <v>44419.44894936342</v>
       </c>
       <c r="C176" s="71" t="n">
         <v>70</v>
@@ -6717,13 +6717,97 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" s="5" t="n"/>
+      <c r="A177" s="69" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" s="70" t="n">
+        <v>44421.45948086806</v>
+      </c>
+      <c r="C177" s="71" t="n">
+        <v>74</v>
+      </c>
+      <c r="D177" s="72" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="E177" s="73" t="n">
+        <v>370</v>
+      </c>
+      <c r="F177" s="74" t="n">
+        <v>370</v>
+      </c>
+      <c r="G177" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" s="74" t="n">
+        <v>50</v>
+      </c>
+      <c r="I177" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
-      <c r="B178" s="5" t="n"/>
+      <c r="A178" s="69" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" s="70" t="n">
+        <v>44421.46024017361</v>
+      </c>
+      <c r="C178" s="71" t="n">
+        <v>71</v>
+      </c>
+      <c r="D178" s="72" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="E178" s="73" t="n">
+        <v>364</v>
+      </c>
+      <c r="F178" s="74" t="n">
+        <v>354</v>
+      </c>
+      <c r="G178" s="75" t="n">
+        <v>10</v>
+      </c>
+      <c r="H178" s="74" t="n">
+        <v>45</v>
+      </c>
+      <c r="I178" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="179">
-      <c r="B179" s="5" t="n"/>
+      <c r="A179" s="69" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" s="70" t="n">
+        <v>44421.47187925348</v>
+      </c>
+      <c r="C179" s="71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D179" s="72" t="inlineStr">
+        <is>
+          <t>96.11</t>
+        </is>
+      </c>
+      <c r="E179" s="73" t="n">
+        <v>346</v>
+      </c>
+      <c r="F179" s="74" t="n">
+        <v>346</v>
+      </c>
+      <c r="G179" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" s="74" t="n">
+        <v>46</v>
+      </c>
+      <c r="I179" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="B180" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -6783,7 +6783,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="70" t="n">
-        <v>44421.47187925348</v>
+        <v>44421.47187925926</v>
       </c>
       <c r="C179" s="71" t="n">
         <v>69</v>
@@ -6810,13 +6810,97 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" s="5" t="n"/>
+      <c r="A180" s="69" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" s="70" t="n">
+        <v>44424.46130672454</v>
+      </c>
+      <c r="C180" s="71" t="n">
+        <v>72</v>
+      </c>
+      <c r="D180" s="72" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="E180" s="73" t="n">
+        <v>358</v>
+      </c>
+      <c r="F180" s="74" t="n">
+        <v>358</v>
+      </c>
+      <c r="G180" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" s="74" t="n">
+        <v>53</v>
+      </c>
+      <c r="I180" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
-      <c r="B181" s="5" t="n"/>
+      <c r="A181" s="69" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" s="70" t="n">
+        <v>44424.46207087963</v>
+      </c>
+      <c r="C181" s="71" t="n">
+        <v>73</v>
+      </c>
+      <c r="D181" s="72" t="inlineStr">
+        <is>
+          <t>97.6</t>
+        </is>
+      </c>
+      <c r="E181" s="73" t="n">
+        <v>366</v>
+      </c>
+      <c r="F181" s="74" t="n">
+        <v>366</v>
+      </c>
+      <c r="G181" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" s="74" t="n">
+        <v>49</v>
+      </c>
+      <c r="I181" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
-      <c r="B182" s="5" t="n"/>
+      <c r="A182" s="69" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" s="70" t="n">
+        <v>44424.46285682082</v>
+      </c>
+      <c r="C182" s="71" t="n">
+        <v>70</v>
+      </c>
+      <c r="D182" s="72" t="inlineStr">
+        <is>
+          <t>96.16</t>
+        </is>
+      </c>
+      <c r="E182" s="73" t="n">
+        <v>351</v>
+      </c>
+      <c r="F182" s="74" t="n">
+        <v>351</v>
+      </c>
+      <c r="G182" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" s="74" t="n">
+        <v>46</v>
+      </c>
+      <c r="I182" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="B183" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -6876,7 +6876,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="70" t="n">
-        <v>44424.46285682082</v>
+        <v>44424.46285681713</v>
       </c>
       <c r="C182" s="71" t="n">
         <v>70</v>
@@ -6903,13 +6903,97 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" s="5" t="n"/>
+      <c r="A183" s="69" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" s="70" t="n">
+        <v>44428.42326359954</v>
+      </c>
+      <c r="C183" s="71" t="n">
+        <v>70</v>
+      </c>
+      <c r="D183" s="72" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="E183" s="73" t="n">
+        <v>359</v>
+      </c>
+      <c r="F183" s="74" t="n">
+        <v>351</v>
+      </c>
+      <c r="G183" s="75" t="n">
+        <v>8</v>
+      </c>
+      <c r="H183" s="74" t="n">
+        <v>48</v>
+      </c>
+      <c r="I183" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
-      <c r="B184" s="5" t="n"/>
+      <c r="A184" s="69" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" s="70" t="n">
+        <v>44428.42402987269</v>
+      </c>
+      <c r="C184" s="71" t="n">
+        <v>73</v>
+      </c>
+      <c r="D184" s="72" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="E184" s="73" t="n">
+        <v>365</v>
+      </c>
+      <c r="F184" s="74" t="n">
+        <v>365</v>
+      </c>
+      <c r="G184" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" s="74" t="n">
+        <v>50</v>
+      </c>
+      <c r="I184" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
-      <c r="B185" s="5" t="n"/>
+      <c r="A185" s="69" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" s="70" t="n">
+        <v>44428.42478951708</v>
+      </c>
+      <c r="C185" s="71" t="n">
+        <v>67</v>
+      </c>
+      <c r="D185" s="72" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="E185" s="73" t="n">
+        <v>337</v>
+      </c>
+      <c r="F185" s="74" t="n">
+        <v>337</v>
+      </c>
+      <c r="G185" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" s="74" t="n">
+        <v>49</v>
+      </c>
+      <c r="I185" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="B186" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -6969,7 +6969,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="70" t="n">
-        <v>44428.42478951708</v>
+        <v>44428.42478951389</v>
       </c>
       <c r="C185" s="71" t="n">
         <v>67</v>
@@ -6996,19 +6996,159 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" s="5" t="n"/>
+      <c r="A186" s="69" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" s="70" t="n">
+        <v>44438.45487328704</v>
+      </c>
+      <c r="C186" s="71" t="n">
+        <v>65</v>
+      </c>
+      <c r="D186" s="72" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="E186" s="73" t="n">
+        <v>349</v>
+      </c>
+      <c r="F186" s="74" t="n">
+        <v>326</v>
+      </c>
+      <c r="G186" s="75" t="n">
+        <v>23</v>
+      </c>
+      <c r="H186" s="74" t="n">
+        <v>44</v>
+      </c>
+      <c r="I186" s="75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="187">
-      <c r="B187" s="5" t="n"/>
+      <c r="A187" s="69" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" s="70" t="n">
+        <v>44438.45564606482</v>
+      </c>
+      <c r="C187" s="71" t="n">
+        <v>65</v>
+      </c>
+      <c r="D187" s="72" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="E187" s="73" t="n">
+        <v>331</v>
+      </c>
+      <c r="F187" s="74" t="n">
+        <v>324</v>
+      </c>
+      <c r="G187" s="75" t="n">
+        <v>7</v>
+      </c>
+      <c r="H187" s="74" t="n">
+        <v>42</v>
+      </c>
+      <c r="I187" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
-      <c r="B188" s="5" t="n"/>
+      <c r="A188" s="69" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" s="70" t="n">
+        <v>44438.55796056713</v>
+      </c>
+      <c r="C188" s="71" t="n">
+        <v>67</v>
+      </c>
+      <c r="D188" s="72" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="E188" s="73" t="n">
+        <v>338</v>
+      </c>
+      <c r="F188" s="74" t="n">
+        <v>333</v>
+      </c>
+      <c r="G188" s="75" t="n">
+        <v>5</v>
+      </c>
+      <c r="H188" s="74" t="n">
+        <v>47</v>
+      </c>
+      <c r="I188" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="189">
-      <c r="B189" s="5" t="n"/>
+      <c r="A189" s="69" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" s="70" t="n">
+        <v>44438.5587177199</v>
+      </c>
+      <c r="C189" s="71" t="n">
+        <v>74</v>
+      </c>
+      <c r="D189" s="72" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="E189" s="73" t="n">
+        <v>380</v>
+      </c>
+      <c r="F189" s="74" t="n">
+        <v>372</v>
+      </c>
+      <c r="G189" s="75" t="n">
+        <v>8</v>
+      </c>
+      <c r="H189" s="74" t="n">
+        <v>51</v>
+      </c>
+      <c r="I189" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
-      <c r="B190" s="5" t="n"/>
+      <c r="A190" s="69" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" s="70" t="n">
+        <v>44438.55947547617</v>
+      </c>
+      <c r="C190" s="71" t="n">
+        <v>72</v>
+      </c>
+      <c r="D190" s="72" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="E190" s="73" t="n">
+        <v>382</v>
+      </c>
+      <c r="F190" s="74" t="n">
+        <v>361</v>
+      </c>
+      <c r="G190" s="75" t="n">
+        <v>21</v>
+      </c>
+      <c r="H190" s="74" t="n">
+        <v>48</v>
+      </c>
+      <c r="I190" s="75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="191">
       <c r="B191" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -7124,7 +7124,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="70" t="n">
-        <v>44438.55947547617</v>
+        <v>44438.55947547454</v>
       </c>
       <c r="C190" s="71" t="n">
         <v>72</v>
@@ -7151,13 +7151,97 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" s="5" t="n"/>
+      <c r="A191" s="69" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" s="70" t="n">
+        <v>44442.45268263889</v>
+      </c>
+      <c r="C191" s="71" t="n">
+        <v>72</v>
+      </c>
+      <c r="D191" s="72" t="inlineStr">
+        <is>
+          <t>95.51</t>
+        </is>
+      </c>
+      <c r="E191" s="73" t="n">
+        <v>367</v>
+      </c>
+      <c r="F191" s="74" t="n">
+        <v>362</v>
+      </c>
+      <c r="G191" s="75" t="n">
+        <v>5</v>
+      </c>
+      <c r="H191" s="74" t="n">
+        <v>49</v>
+      </c>
+      <c r="I191" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
-      <c r="B192" s="5" t="n"/>
+      <c r="A192" s="69" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" s="70" t="n">
+        <v>44442.45344098379</v>
+      </c>
+      <c r="C192" s="71" t="n">
+        <v>72</v>
+      </c>
+      <c r="D192" s="72" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="E192" s="73" t="n">
+        <v>368</v>
+      </c>
+      <c r="F192" s="74" t="n">
+        <v>362</v>
+      </c>
+      <c r="G192" s="75" t="n">
+        <v>6</v>
+      </c>
+      <c r="H192" s="74" t="n">
+        <v>50</v>
+      </c>
+      <c r="I192" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
-      <c r="B193" s="5" t="n"/>
+      <c r="A193" s="69" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" s="70" t="n">
+        <v>44442.45505037921</v>
+      </c>
+      <c r="C193" s="71" t="n">
+        <v>65</v>
+      </c>
+      <c r="D193" s="72" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="E193" s="73" t="n">
+        <v>335</v>
+      </c>
+      <c r="F193" s="74" t="n">
+        <v>324</v>
+      </c>
+      <c r="G193" s="75" t="n">
+        <v>11</v>
+      </c>
+      <c r="H193" s="74" t="n">
+        <v>47</v>
+      </c>
+      <c r="I193" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="B194" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -7217,7 +7217,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="70" t="n">
-        <v>44442.45505037921</v>
+        <v>44442.45505038194</v>
       </c>
       <c r="C193" s="71" t="n">
         <v>65</v>
@@ -7244,16 +7244,128 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" s="5" t="n"/>
+      <c r="A194" s="69" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" s="70" t="n">
+        <v>44445.53189181713</v>
+      </c>
+      <c r="C194" s="71" t="n">
+        <v>74</v>
+      </c>
+      <c r="D194" s="72" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="E194" s="73" t="n">
+        <v>375</v>
+      </c>
+      <c r="F194" s="74" t="n">
+        <v>368</v>
+      </c>
+      <c r="G194" s="75" t="n">
+        <v>7</v>
+      </c>
+      <c r="H194" s="74" t="n">
+        <v>53</v>
+      </c>
+      <c r="I194" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="195">
-      <c r="B195" s="5" t="n"/>
+      <c r="A195" s="69" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" s="70" t="n">
+        <v>44445.53269689815</v>
+      </c>
+      <c r="C195" s="71" t="n">
+        <v>73</v>
+      </c>
+      <c r="D195" s="72" t="inlineStr">
+        <is>
+          <t>96.33</t>
+        </is>
+      </c>
+      <c r="E195" s="73" t="n">
+        <v>367</v>
+      </c>
+      <c r="F195" s="74" t="n">
+        <v>367</v>
+      </c>
+      <c r="G195" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" s="74" t="n">
+        <v>51</v>
+      </c>
+      <c r="I195" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
-      <c r="B196" s="5" t="n"/>
+      <c r="A196" s="69" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" s="70" t="n">
+        <v>44445.53346814815</v>
+      </c>
+      <c r="C196" s="71" t="n">
+        <v>75</v>
+      </c>
+      <c r="D196" s="72" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="E196" s="73" t="n">
+        <v>407</v>
+      </c>
+      <c r="F196" s="74" t="n">
+        <v>376</v>
+      </c>
+      <c r="G196" s="75" t="n">
+        <v>31</v>
+      </c>
+      <c r="H196" s="74" t="n">
+        <v>52</v>
+      </c>
+      <c r="I196" s="75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="197">
-      <c r="B197" s="5" t="n"/>
+      <c r="A197" s="69" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" s="70" t="n">
+        <v>44445.53458124446</v>
+      </c>
+      <c r="C197" s="71" t="n">
+        <v>76</v>
+      </c>
+      <c r="D197" s="72" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="E197" s="73" t="n">
+        <v>381</v>
+      </c>
+      <c r="F197" s="74" t="n">
+        <v>381</v>
+      </c>
+      <c r="G197" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" s="74" t="n">
+        <v>55</v>
+      </c>
+      <c r="I197" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="B198" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -7341,7 +7341,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="70" t="n">
-        <v>44445.53458124446</v>
+        <v>44445.53458125</v>
       </c>
       <c r="C197" s="71" t="n">
         <v>76</v>
@@ -7368,13 +7368,97 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" s="5" t="n"/>
+      <c r="A198" s="69" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" s="70" t="n">
+        <v>44449.71701702546</v>
+      </c>
+      <c r="C198" s="71" t="n">
+        <v>75</v>
+      </c>
+      <c r="D198" s="72" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="E198" s="73" t="n">
+        <v>373</v>
+      </c>
+      <c r="F198" s="74" t="n">
+        <v>373</v>
+      </c>
+      <c r="G198" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" s="74" t="n">
+        <v>51</v>
+      </c>
+      <c r="I198" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
-      <c r="B199" s="5" t="n"/>
+      <c r="A199" s="69" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" s="70" t="n">
+        <v>44449.71793002315</v>
+      </c>
+      <c r="C199" s="71" t="n">
+        <v>80</v>
+      </c>
+      <c r="D199" s="72" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="E199" s="73" t="n">
+        <v>404</v>
+      </c>
+      <c r="F199" s="74" t="n">
+        <v>399</v>
+      </c>
+      <c r="G199" s="75" t="n">
+        <v>5</v>
+      </c>
+      <c r="H199" s="74" t="n">
+        <v>55</v>
+      </c>
+      <c r="I199" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="200">
-      <c r="B200" s="5" t="n"/>
+      <c r="A200" s="69" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" s="70" t="n">
+        <v>44449.71875632539</v>
+      </c>
+      <c r="C200" s="71" t="n">
+        <v>83</v>
+      </c>
+      <c r="D200" s="72" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="E200" s="73" t="n">
+        <v>423</v>
+      </c>
+      <c r="F200" s="74" t="n">
+        <v>416</v>
+      </c>
+      <c r="G200" s="75" t="n">
+        <v>7</v>
+      </c>
+      <c r="H200" s="74" t="n">
+        <v>58</v>
+      </c>
+      <c r="I200" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="B201" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -7434,7 +7434,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="70" t="n">
-        <v>44449.71875632539</v>
+        <v>44449.71875633102</v>
       </c>
       <c r="C200" s="71" t="n">
         <v>83</v>
@@ -7461,13 +7461,97 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" s="5" t="n"/>
+      <c r="A201" s="69" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" s="70" t="n">
+        <v>44453.49429060186</v>
+      </c>
+      <c r="C201" s="71" t="n">
+        <v>68</v>
+      </c>
+      <c r="D201" s="72" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="E201" s="73" t="n">
+        <v>362</v>
+      </c>
+      <c r="F201" s="74" t="n">
+        <v>341</v>
+      </c>
+      <c r="G201" s="75" t="n">
+        <v>21</v>
+      </c>
+      <c r="H201" s="74" t="n">
+        <v>48</v>
+      </c>
+      <c r="I201" s="75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="202">
-      <c r="B202" s="5" t="n"/>
+      <c r="A202" s="69" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" s="70" t="n">
+        <v>44453.49512851852</v>
+      </c>
+      <c r="C202" s="71" t="n">
+        <v>70</v>
+      </c>
+      <c r="D202" s="72" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="E202" s="73" t="n">
+        <v>367</v>
+      </c>
+      <c r="F202" s="74" t="n">
+        <v>350</v>
+      </c>
+      <c r="G202" s="75" t="n">
+        <v>17</v>
+      </c>
+      <c r="H202" s="74" t="n">
+        <v>47</v>
+      </c>
+      <c r="I202" s="75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="203">
-      <c r="B203" s="5" t="n"/>
+      <c r="A203" s="69" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" s="70" t="n">
+        <v>44453.526750735</v>
+      </c>
+      <c r="C203" s="71" t="n">
+        <v>86</v>
+      </c>
+      <c r="D203" s="72" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="E203" s="73" t="n">
+        <v>444</v>
+      </c>
+      <c r="F203" s="74" t="n">
+        <v>431</v>
+      </c>
+      <c r="G203" s="75" t="n">
+        <v>13</v>
+      </c>
+      <c r="H203" s="74" t="n">
+        <v>57</v>
+      </c>
+      <c r="I203" s="75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="204">
       <c r="B204" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -7527,7 +7527,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="70" t="n">
-        <v>44453.526750735</v>
+        <v>44453.52675074074</v>
       </c>
       <c r="C203" s="71" t="n">
         <v>86</v>
@@ -7554,13 +7554,97 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" s="5" t="n"/>
+      <c r="A204" s="69" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" s="70" t="n">
+        <v>44456.45266693287</v>
+      </c>
+      <c r="C204" s="71" t="n">
+        <v>70</v>
+      </c>
+      <c r="D204" s="72" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="E204" s="73" t="n">
+        <v>356</v>
+      </c>
+      <c r="F204" s="74" t="n">
+        <v>348</v>
+      </c>
+      <c r="G204" s="75" t="n">
+        <v>8</v>
+      </c>
+      <c r="H204" s="74" t="n">
+        <v>52</v>
+      </c>
+      <c r="I204" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="205">
-      <c r="B205" s="5" t="n"/>
+      <c r="A205" s="69" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" s="70" t="n">
+        <v>44456.45342197917</v>
+      </c>
+      <c r="C205" s="71" t="n">
+        <v>85</v>
+      </c>
+      <c r="D205" s="72" t="inlineStr">
+        <is>
+          <t>98.6</t>
+        </is>
+      </c>
+      <c r="E205" s="73" t="n">
+        <v>423</v>
+      </c>
+      <c r="F205" s="74" t="n">
+        <v>423</v>
+      </c>
+      <c r="G205" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" s="74" t="n">
+        <v>61</v>
+      </c>
+      <c r="I205" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
-      <c r="B206" s="5" t="n"/>
+      <c r="A206" s="69" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" s="70" t="n">
+        <v>44456.45421546548</v>
+      </c>
+      <c r="C206" s="71" t="n">
+        <v>83</v>
+      </c>
+      <c r="D206" s="72" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="E206" s="73" t="n">
+        <v>417</v>
+      </c>
+      <c r="F206" s="74" t="n">
+        <v>413</v>
+      </c>
+      <c r="G206" s="75" t="n">
+        <v>4</v>
+      </c>
+      <c r="H206" s="74" t="n">
+        <v>59</v>
+      </c>
+      <c r="I206" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="B207" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -7620,7 +7620,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="70" t="n">
-        <v>44456.45421546548</v>
+        <v>44456.45421546296</v>
       </c>
       <c r="C206" s="71" t="n">
         <v>83</v>
@@ -7647,10 +7647,66 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" s="5" t="n"/>
+      <c r="A207" s="69" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" s="70" t="n">
+        <v>44459.69497719908</v>
+      </c>
+      <c r="C207" s="71" t="n">
+        <v>74</v>
+      </c>
+      <c r="D207" s="72" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="E207" s="73" t="n">
+        <v>377</v>
+      </c>
+      <c r="F207" s="74" t="n">
+        <v>372</v>
+      </c>
+      <c r="G207" s="75" t="n">
+        <v>5</v>
+      </c>
+      <c r="H207" s="74" t="n">
+        <v>51</v>
+      </c>
+      <c r="I207" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="208">
-      <c r="B208" s="5" t="n"/>
+      <c r="A208" s="69" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" s="70" t="n">
+        <v>44459.69597058471</v>
+      </c>
+      <c r="C208" s="71" t="n">
+        <v>78</v>
+      </c>
+      <c r="D208" s="72" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="E208" s="73" t="n">
+        <v>407</v>
+      </c>
+      <c r="F208" s="74" t="n">
+        <v>392</v>
+      </c>
+      <c r="G208" s="75" t="n">
+        <v>15</v>
+      </c>
+      <c r="H208" s="74" t="n">
+        <v>59</v>
+      </c>
+      <c r="I208" s="75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="209">
       <c r="B209" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -7682,7 +7682,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="70" t="n">
-        <v>44459.69597058471</v>
+        <v>44459.69597059028</v>
       </c>
       <c r="C208" s="71" t="n">
         <v>78</v>
@@ -7709,13 +7709,97 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" s="5" t="n"/>
+      <c r="A209" s="69" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" s="70" t="n">
+        <v>44463.44476704861</v>
+      </c>
+      <c r="C209" s="71" t="n">
+        <v>77</v>
+      </c>
+      <c r="D209" s="72" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="E209" s="73" t="n">
+        <v>400</v>
+      </c>
+      <c r="F209" s="74" t="n">
+        <v>383</v>
+      </c>
+      <c r="G209" s="75" t="n">
+        <v>17</v>
+      </c>
+      <c r="H209" s="74" t="n">
+        <v>51</v>
+      </c>
+      <c r="I209" s="75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="210">
-      <c r="B210" s="5" t="n"/>
+      <c r="A210" s="69" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" s="70" t="n">
+        <v>44463.44561092593</v>
+      </c>
+      <c r="C210" s="71" t="n">
+        <v>80</v>
+      </c>
+      <c r="D210" s="72" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="E210" s="73" t="n">
+        <v>399</v>
+      </c>
+      <c r="F210" s="74" t="n">
+        <v>399</v>
+      </c>
+      <c r="G210" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" s="74" t="n">
+        <v>53</v>
+      </c>
+      <c r="I210" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
-      <c r="B211" s="5" t="n"/>
+      <c r="A211" s="69" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" s="70" t="n">
+        <v>44463.44652727991</v>
+      </c>
+      <c r="C211" s="71" t="n">
+        <v>77</v>
+      </c>
+      <c r="D211" s="72" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="E211" s="73" t="n">
+        <v>407</v>
+      </c>
+      <c r="F211" s="74" t="n">
+        <v>386</v>
+      </c>
+      <c r="G211" s="75" t="n">
+        <v>21</v>
+      </c>
+      <c r="H211" s="74" t="n">
+        <v>51</v>
+      </c>
+      <c r="I211" s="75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="212">
       <c r="B212" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -7775,7 +7775,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="70" t="n">
-        <v>44463.44652727991</v>
+        <v>44463.4465272801</v>
       </c>
       <c r="C211" s="71" t="n">
         <v>77</v>
@@ -7802,13 +7802,97 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" s="5" t="n"/>
+      <c r="A212" s="69" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" s="70" t="n">
+        <v>44466.51293196759</v>
+      </c>
+      <c r="C212" s="71" t="n">
+        <v>75</v>
+      </c>
+      <c r="D212" s="72" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="E212" s="73" t="n">
+        <v>396</v>
+      </c>
+      <c r="F212" s="74" t="n">
+        <v>377</v>
+      </c>
+      <c r="G212" s="75" t="n">
+        <v>19</v>
+      </c>
+      <c r="H212" s="74" t="n">
+        <v>52</v>
+      </c>
+      <c r="I212" s="75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="213">
-      <c r="B213" s="5" t="n"/>
+      <c r="A213" s="69" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" s="70" t="n">
+        <v>44466.51368605324</v>
+      </c>
+      <c r="C213" s="71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D213" s="72" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="E213" s="73" t="n">
+        <v>385</v>
+      </c>
+      <c r="F213" s="74" t="n">
+        <v>345</v>
+      </c>
+      <c r="G213" s="75" t="n">
+        <v>40</v>
+      </c>
+      <c r="H213" s="74" t="n">
+        <v>51</v>
+      </c>
+      <c r="I213" s="75" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="214">
-      <c r="B214" s="5" t="n"/>
+      <c r="A214" s="69" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" s="70" t="n">
+        <v>44466.51449007252</v>
+      </c>
+      <c r="C214" s="71" t="n">
+        <v>82</v>
+      </c>
+      <c r="D214" s="72" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="E214" s="73" t="n">
+        <v>421</v>
+      </c>
+      <c r="F214" s="74" t="n">
+        <v>409</v>
+      </c>
+      <c r="G214" s="75" t="n">
+        <v>12</v>
+      </c>
+      <c r="H214" s="74" t="n">
+        <v>56</v>
+      </c>
+      <c r="I214" s="75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="215">
       <c r="B215" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -7868,7 +7868,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="70" t="n">
-        <v>44466.51449007252</v>
+        <v>44466.51449006944</v>
       </c>
       <c r="C214" s="71" t="n">
         <v>82</v>
@@ -7895,13 +7895,97 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" s="5" t="n"/>
+      <c r="A215" s="69" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" s="70" t="n">
+        <v>44470.47624248842</v>
+      </c>
+      <c r="C215" s="71" t="n">
+        <v>71</v>
+      </c>
+      <c r="D215" s="72" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="E215" s="73" t="n">
+        <v>369</v>
+      </c>
+      <c r="F215" s="74" t="n">
+        <v>357</v>
+      </c>
+      <c r="G215" s="75" t="n">
+        <v>12</v>
+      </c>
+      <c r="H215" s="74" t="n">
+        <v>48</v>
+      </c>
+      <c r="I215" s="75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="216">
-      <c r="B216" s="5" t="n"/>
+      <c r="A216" s="69" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" s="70" t="n">
+        <v>44470.47739278935</v>
+      </c>
+      <c r="C216" s="71" t="n">
+        <v>80</v>
+      </c>
+      <c r="D216" s="72" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="E216" s="73" t="n">
+        <v>399</v>
+      </c>
+      <c r="F216" s="74" t="n">
+        <v>399</v>
+      </c>
+      <c r="G216" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" s="74" t="n">
+        <v>56</v>
+      </c>
+      <c r="I216" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
-      <c r="B217" s="5" t="n"/>
+      <c r="A217" s="69" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" s="70" t="n">
+        <v>44470.4785260404</v>
+      </c>
+      <c r="C217" s="71" t="n">
+        <v>70</v>
+      </c>
+      <c r="D217" s="72" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="E217" s="73" t="n">
+        <v>363</v>
+      </c>
+      <c r="F217" s="74" t="n">
+        <v>352</v>
+      </c>
+      <c r="G217" s="75" t="n">
+        <v>11</v>
+      </c>
+      <c r="H217" s="74" t="n">
+        <v>45</v>
+      </c>
+      <c r="I217" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="B218" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -7961,7 +7961,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="70" t="n">
-        <v>44470.4785260404</v>
+        <v>44470.47852604167</v>
       </c>
       <c r="C217" s="71" t="n">
         <v>70</v>
@@ -7988,13 +7988,97 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" s="5" t="n"/>
+      <c r="A218" s="69" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" s="70" t="n">
+        <v>44473.52385236111</v>
+      </c>
+      <c r="C218" s="71" t="n">
+        <v>73</v>
+      </c>
+      <c r="D218" s="72" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="E218" s="73" t="n">
+        <v>388</v>
+      </c>
+      <c r="F218" s="74" t="n">
+        <v>367</v>
+      </c>
+      <c r="G218" s="75" t="n">
+        <v>21</v>
+      </c>
+      <c r="H218" s="74" t="n">
+        <v>48</v>
+      </c>
+      <c r="I218" s="75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="219">
-      <c r="B219" s="5" t="n"/>
+      <c r="A219" s="69" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" s="70" t="n">
+        <v>44473.52461228009</v>
+      </c>
+      <c r="C219" s="71" t="n">
+        <v>85</v>
+      </c>
+      <c r="D219" s="72" t="inlineStr">
+        <is>
+          <t>96.14</t>
+        </is>
+      </c>
+      <c r="E219" s="73" t="n">
+        <v>431</v>
+      </c>
+      <c r="F219" s="74" t="n">
+        <v>423</v>
+      </c>
+      <c r="G219" s="75" t="n">
+        <v>8</v>
+      </c>
+      <c r="H219" s="74" t="n">
+        <v>57</v>
+      </c>
+      <c r="I219" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
-      <c r="B220" s="5" t="n"/>
+      <c r="A220" s="69" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" s="70" t="n">
+        <v>44473.52538183711</v>
+      </c>
+      <c r="C220" s="71" t="n">
+        <v>82</v>
+      </c>
+      <c r="D220" s="72" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="E220" s="73" t="n">
+        <v>431</v>
+      </c>
+      <c r="F220" s="74" t="n">
+        <v>412</v>
+      </c>
+      <c r="G220" s="75" t="n">
+        <v>19</v>
+      </c>
+      <c r="H220" s="74" t="n">
+        <v>53</v>
+      </c>
+      <c r="I220" s="75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="221">
       <c r="B221" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -8054,7 +8054,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="70" t="n">
-        <v>44473.52538183711</v>
+        <v>44473.52538184028</v>
       </c>
       <c r="C220" s="71" t="n">
         <v>82</v>
@@ -8081,13 +8081,97 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" s="5" t="n"/>
+      <c r="A221" s="69" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" s="70" t="n">
+        <v>44477.58165113426</v>
+      </c>
+      <c r="C221" s="71" t="n">
+        <v>73</v>
+      </c>
+      <c r="D221" s="72" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="E221" s="73" t="n">
+        <v>366</v>
+      </c>
+      <c r="F221" s="74" t="n">
+        <v>366</v>
+      </c>
+      <c r="G221" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" s="74" t="n">
+        <v>48</v>
+      </c>
+      <c r="I221" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
-      <c r="B222" s="5" t="n"/>
+      <c r="A222" s="69" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" s="70" t="n">
+        <v>44477.58241216435</v>
+      </c>
+      <c r="C222" s="71" t="n">
+        <v>71</v>
+      </c>
+      <c r="D222" s="72" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="E222" s="73" t="n">
+        <v>374</v>
+      </c>
+      <c r="F222" s="74" t="n">
+        <v>354</v>
+      </c>
+      <c r="G222" s="75" t="n">
+        <v>20</v>
+      </c>
+      <c r="H222" s="74" t="n">
+        <v>48</v>
+      </c>
+      <c r="I222" s="75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="223">
-      <c r="B223" s="5" t="n"/>
+      <c r="A223" s="69" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" s="70" t="n">
+        <v>44477.58320414188</v>
+      </c>
+      <c r="C223" s="71" t="n">
+        <v>71</v>
+      </c>
+      <c r="D223" s="72" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="E223" s="73" t="n">
+        <v>369</v>
+      </c>
+      <c r="F223" s="74" t="n">
+        <v>354</v>
+      </c>
+      <c r="G223" s="75" t="n">
+        <v>15</v>
+      </c>
+      <c r="H223" s="74" t="n">
+        <v>48</v>
+      </c>
+      <c r="I223" s="75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="B224" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -8147,7 +8147,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="70" t="n">
-        <v>44477.58320414188</v>
+        <v>44477.58320414352</v>
       </c>
       <c r="C223" s="71" t="n">
         <v>71</v>
@@ -8174,10 +8174,66 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" s="5" t="n"/>
+      <c r="A224" s="69" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" s="70" t="n">
+        <v>44480.48491741898</v>
+      </c>
+      <c r="C224" s="71" t="n">
+        <v>73</v>
+      </c>
+      <c r="D224" s="72" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="E224" s="73" t="n">
+        <v>377</v>
+      </c>
+      <c r="F224" s="74" t="n">
+        <v>364</v>
+      </c>
+      <c r="G224" s="75" t="n">
+        <v>13</v>
+      </c>
+      <c r="H224" s="74" t="n">
+        <v>54</v>
+      </c>
+      <c r="I224" s="75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="225">
-      <c r="B225" s="5" t="n"/>
+      <c r="A225" s="69" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" s="70" t="n">
+        <v>44480.48567592013</v>
+      </c>
+      <c r="C225" s="71" t="n">
+        <v>81</v>
+      </c>
+      <c r="D225" s="72" t="inlineStr">
+        <is>
+          <t>95.72</t>
+        </is>
+      </c>
+      <c r="E225" s="73" t="n">
+        <v>409</v>
+      </c>
+      <c r="F225" s="74" t="n">
+        <v>403</v>
+      </c>
+      <c r="G225" s="75" t="n">
+        <v>6</v>
+      </c>
+      <c r="H225" s="74" t="n">
+        <v>55</v>
+      </c>
+      <c r="I225" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="226">
       <c r="B226" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -8209,7 +8209,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="70" t="n">
-        <v>44480.48567592013</v>
+        <v>44480.48567591435</v>
       </c>
       <c r="C225" s="71" t="n">
         <v>81</v>
@@ -8236,13 +8236,97 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" s="5" t="n"/>
+      <c r="A226" s="69" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" s="70" t="n">
+        <v>44484.49124105324</v>
+      </c>
+      <c r="C226" s="71" t="n">
+        <v>72</v>
+      </c>
+      <c r="D226" s="72" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="E226" s="73" t="n">
+        <v>371</v>
+      </c>
+      <c r="F226" s="74" t="n">
+        <v>361</v>
+      </c>
+      <c r="G226" s="75" t="n">
+        <v>10</v>
+      </c>
+      <c r="H226" s="74" t="n">
+        <v>49</v>
+      </c>
+      <c r="I226" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
-      <c r="B227" s="5" t="n"/>
+      <c r="A227" s="69" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" s="70" t="n">
+        <v>44484.49242569444</v>
+      </c>
+      <c r="C227" s="71" t="n">
+        <v>75</v>
+      </c>
+      <c r="D227" s="72" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="E227" s="73" t="n">
+        <v>384</v>
+      </c>
+      <c r="F227" s="74" t="n">
+        <v>377</v>
+      </c>
+      <c r="G227" s="75" t="n">
+        <v>7</v>
+      </c>
+      <c r="H227" s="74" t="n">
+        <v>58</v>
+      </c>
+      <c r="I227" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
-      <c r="B228" s="5" t="n"/>
+      <c r="A228" s="69" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" s="70" t="n">
+        <v>44484.49331342101</v>
+      </c>
+      <c r="C228" s="71" t="n">
+        <v>81</v>
+      </c>
+      <c r="D228" s="72" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="E228" s="73" t="n">
+        <v>404</v>
+      </c>
+      <c r="F228" s="74" t="n">
+        <v>404</v>
+      </c>
+      <c r="G228" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" s="74" t="n">
+        <v>52</v>
+      </c>
+      <c r="I228" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="B229" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -8302,7 +8302,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="70" t="n">
-        <v>44484.49331342101</v>
+        <v>44484.49331342593</v>
       </c>
       <c r="C228" s="71" t="n">
         <v>81</v>
@@ -8329,13 +8329,97 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" s="5" t="n"/>
+      <c r="A229" s="69" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" s="70" t="n">
+        <v>44488.47360168982</v>
+      </c>
+      <c r="C229" s="71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D229" s="72" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="E229" s="73" t="n">
+        <v>367</v>
+      </c>
+      <c r="F229" s="74" t="n">
+        <v>344</v>
+      </c>
+      <c r="G229" s="75" t="n">
+        <v>23</v>
+      </c>
+      <c r="H229" s="74" t="n">
+        <v>47</v>
+      </c>
+      <c r="I229" s="75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="230">
-      <c r="B230" s="5" t="n"/>
+      <c r="A230" s="69" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" s="70" t="n">
+        <v>44488.47461193287</v>
+      </c>
+      <c r="C230" s="71" t="n">
+        <v>71</v>
+      </c>
+      <c r="D230" s="72" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="E230" s="73" t="n">
+        <v>379</v>
+      </c>
+      <c r="F230" s="74" t="n">
+        <v>357</v>
+      </c>
+      <c r="G230" s="75" t="n">
+        <v>22</v>
+      </c>
+      <c r="H230" s="74" t="n">
+        <v>51</v>
+      </c>
+      <c r="I230" s="75" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="231">
-      <c r="B231" s="5" t="n"/>
+      <c r="A231" s="69" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" s="70" t="n">
+        <v>44488.47537004045</v>
+      </c>
+      <c r="C231" s="71" t="n">
+        <v>72</v>
+      </c>
+      <c r="D231" s="72" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="E231" s="73" t="n">
+        <v>372</v>
+      </c>
+      <c r="F231" s="74" t="n">
+        <v>362</v>
+      </c>
+      <c r="G231" s="75" t="n">
+        <v>10</v>
+      </c>
+      <c r="H231" s="74" t="n">
+        <v>51</v>
+      </c>
+      <c r="I231" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="B232" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -8395,7 +8395,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="70" t="n">
-        <v>44488.47537004045</v>
+        <v>44488.47537003472</v>
       </c>
       <c r="C231" s="71" t="n">
         <v>72</v>
@@ -8422,13 +8422,97 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" s="5" t="n"/>
+      <c r="A232" s="69" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" s="70" t="n">
+        <v>44491.53478568287</v>
+      </c>
+      <c r="C232" s="71" t="n">
+        <v>70</v>
+      </c>
+      <c r="D232" s="72" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="E232" s="73" t="n">
+        <v>368</v>
+      </c>
+      <c r="F232" s="74" t="n">
+        <v>351</v>
+      </c>
+      <c r="G232" s="75" t="n">
+        <v>17</v>
+      </c>
+      <c r="H232" s="74" t="n">
+        <v>50</v>
+      </c>
+      <c r="I232" s="75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="233">
-      <c r="B233" s="5" t="n"/>
+      <c r="A233" s="69" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" s="70" t="n">
+        <v>44491.5355467824</v>
+      </c>
+      <c r="C233" s="71" t="n">
+        <v>70</v>
+      </c>
+      <c r="D233" s="72" t="inlineStr">
+        <is>
+          <t>93.1</t>
+        </is>
+      </c>
+      <c r="E233" s="73" t="n">
+        <v>358</v>
+      </c>
+      <c r="F233" s="74" t="n">
+        <v>351</v>
+      </c>
+      <c r="G233" s="75" t="n">
+        <v>7</v>
+      </c>
+      <c r="H233" s="74" t="n">
+        <v>48</v>
+      </c>
+      <c r="I233" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="234">
-      <c r="B234" s="5" t="n"/>
+      <c r="A234" s="69" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" s="70" t="n">
+        <v>44491.53636383365</v>
+      </c>
+      <c r="C234" s="71" t="n">
+        <v>86</v>
+      </c>
+      <c r="D234" s="72" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="E234" s="73" t="n">
+        <v>431</v>
+      </c>
+      <c r="F234" s="74" t="n">
+        <v>431</v>
+      </c>
+      <c r="G234" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H234" s="74" t="n">
+        <v>57</v>
+      </c>
+      <c r="I234" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="B235" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -8488,7 +8488,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="70" t="n">
-        <v>44491.53636383365</v>
+        <v>44491.53636383102</v>
       </c>
       <c r="C234" s="71" t="n">
         <v>86</v>
@@ -8515,22 +8515,190 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" s="5" t="n"/>
+      <c r="A235" s="69" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" s="70" t="n">
+        <v>44495.50838862269</v>
+      </c>
+      <c r="C235" s="71" t="n">
+        <v>72</v>
+      </c>
+      <c r="D235" s="72" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="E235" s="73" t="n">
+        <v>366</v>
+      </c>
+      <c r="F235" s="74" t="n">
+        <v>359</v>
+      </c>
+      <c r="G235" s="75" t="n">
+        <v>7</v>
+      </c>
+      <c r="H235" s="74" t="n">
+        <v>50</v>
+      </c>
+      <c r="I235" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
-      <c r="B236" s="5" t="n"/>
+      <c r="A236" s="69" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" s="70" t="n">
+        <v>44495.50915003472</v>
+      </c>
+      <c r="C236" s="71" t="n">
+        <v>80</v>
+      </c>
+      <c r="D236" s="72" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="E236" s="73" t="n">
+        <v>402</v>
+      </c>
+      <c r="F236" s="74" t="n">
+        <v>402</v>
+      </c>
+      <c r="G236" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H236" s="74" t="n">
+        <v>52</v>
+      </c>
+      <c r="I236" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
-      <c r="B237" s="5" t="n"/>
+      <c r="A237" s="69" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" s="70" t="n">
+        <v>44495.51079400463</v>
+      </c>
+      <c r="C237" s="71" t="n">
+        <v>72</v>
+      </c>
+      <c r="D237" s="72" t="inlineStr">
+        <is>
+          <t>95.74</t>
+        </is>
+      </c>
+      <c r="E237" s="73" t="n">
+        <v>360</v>
+      </c>
+      <c r="F237" s="74" t="n">
+        <v>360</v>
+      </c>
+      <c r="G237" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H237" s="74" t="n">
+        <v>48</v>
+      </c>
+      <c r="I237" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
-      <c r="B238" s="5" t="n"/>
+      <c r="A238" s="69" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" s="70" t="n">
+        <v>44495.51155890046</v>
+      </c>
+      <c r="C238" s="71" t="n">
+        <v>79</v>
+      </c>
+      <c r="D238" s="72" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="E238" s="73" t="n">
+        <v>422</v>
+      </c>
+      <c r="F238" s="74" t="n">
+        <v>396</v>
+      </c>
+      <c r="G238" s="75" t="n">
+        <v>26</v>
+      </c>
+      <c r="H238" s="74" t="n">
+        <v>53</v>
+      </c>
+      <c r="I238" s="75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="239">
-      <c r="B239" s="5" t="n"/>
+      <c r="A239" s="69" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" s="70" t="n">
+        <v>44495.51411002315</v>
+      </c>
+      <c r="C239" s="71" t="n">
+        <v>88</v>
+      </c>
+      <c r="D239" s="72" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="E239" s="73" t="n">
+        <v>440</v>
+      </c>
+      <c r="F239" s="74" t="n">
+        <v>440</v>
+      </c>
+      <c r="G239" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H239" s="74" t="n">
+        <v>59</v>
+      </c>
+      <c r="I239" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
-      <c r="B240" s="5" t="n"/>
+      <c r="A240" s="69" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" s="70" t="n">
+        <v>44495.51491764605</v>
+      </c>
+      <c r="C240" s="71" t="n">
+        <v>78</v>
+      </c>
+      <c r="D240" s="72" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="E240" s="73" t="n">
+        <v>422</v>
+      </c>
+      <c r="F240" s="74" t="n">
+        <v>389</v>
+      </c>
+      <c r="G240" s="75" t="n">
+        <v>33</v>
+      </c>
+      <c r="H240" s="74" t="n">
+        <v>55</v>
+      </c>
+      <c r="I240" s="75" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="241">
       <c r="B241" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -8674,7 +8674,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="70" t="n">
-        <v>44495.51491764605</v>
+        <v>44495.51491765046</v>
       </c>
       <c r="C240" s="71" t="n">
         <v>78</v>
@@ -8701,13 +8701,97 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" s="5" t="n"/>
+      <c r="A241" s="69" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" s="70" t="n">
+        <v>44498.47028178241</v>
+      </c>
+      <c r="C241" s="71" t="n">
+        <v>79</v>
+      </c>
+      <c r="D241" s="72" t="inlineStr">
+        <is>
+          <t>94.3</t>
+        </is>
+      </c>
+      <c r="E241" s="73" t="n">
+        <v>412</v>
+      </c>
+      <c r="F241" s="74" t="n">
+        <v>397</v>
+      </c>
+      <c r="G241" s="75" t="n">
+        <v>15</v>
+      </c>
+      <c r="H241" s="74" t="n">
+        <v>55</v>
+      </c>
+      <c r="I241" s="75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="242">
-      <c r="B242" s="5" t="n"/>
+      <c r="A242" s="69" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" s="70" t="n">
+        <v>44498.47118418982</v>
+      </c>
+      <c r="C242" s="71" t="n">
+        <v>79</v>
+      </c>
+      <c r="D242" s="72" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="E242" s="73" t="n">
+        <v>413</v>
+      </c>
+      <c r="F242" s="74" t="n">
+        <v>396</v>
+      </c>
+      <c r="G242" s="75" t="n">
+        <v>17</v>
+      </c>
+      <c r="H242" s="74" t="n">
+        <v>55</v>
+      </c>
+      <c r="I242" s="75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
-      <c r="B243" s="5" t="n"/>
+      <c r="A243" s="69" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" s="70" t="n">
+        <v>44498.47211382625</v>
+      </c>
+      <c r="C243" s="71" t="n">
+        <v>77</v>
+      </c>
+      <c r="D243" s="72" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="E243" s="73" t="n">
+        <v>392</v>
+      </c>
+      <c r="F243" s="74" t="n">
+        <v>384</v>
+      </c>
+      <c r="G243" s="75" t="n">
+        <v>8</v>
+      </c>
+      <c r="H243" s="74" t="n">
+        <v>53</v>
+      </c>
+      <c r="I243" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="B244" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -8767,7 +8767,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="70" t="n">
-        <v>44498.47211382625</v>
+        <v>44498.47211383102</v>
       </c>
       <c r="C243" s="71" t="n">
         <v>77</v>
@@ -8794,13 +8794,97 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" s="5" t="n"/>
+      <c r="A244" s="69" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" s="70" t="n">
+        <v>44502.60074518518</v>
+      </c>
+      <c r="C244" s="71" t="n">
+        <v>76</v>
+      </c>
+      <c r="D244" s="72" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="E244" s="73" t="n">
+        <v>378</v>
+      </c>
+      <c r="F244" s="74" t="n">
+        <v>378</v>
+      </c>
+      <c r="G244" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H244" s="74" t="n">
+        <v>50</v>
+      </c>
+      <c r="I244" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
-      <c r="B245" s="5" t="n"/>
+      <c r="A245" s="69" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" s="70" t="n">
+        <v>44503.68417234954</v>
+      </c>
+      <c r="C245" s="71" t="n">
+        <v>74</v>
+      </c>
+      <c r="D245" s="72" t="inlineStr">
+        <is>
+          <t>92.7</t>
+        </is>
+      </c>
+      <c r="E245" s="73" t="n">
+        <v>378</v>
+      </c>
+      <c r="F245" s="74" t="n">
+        <v>368</v>
+      </c>
+      <c r="G245" s="75" t="n">
+        <v>10</v>
+      </c>
+      <c r="H245" s="74" t="n">
+        <v>50</v>
+      </c>
+      <c r="I245" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="246">
-      <c r="B246" s="5" t="n"/>
+      <c r="A246" s="69" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" s="70" t="n">
+        <v>44503.68519162324</v>
+      </c>
+      <c r="C246" s="71" t="n">
+        <v>72</v>
+      </c>
+      <c r="D246" s="72" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="E246" s="73" t="n">
+        <v>366</v>
+      </c>
+      <c r="F246" s="74" t="n">
+        <v>361</v>
+      </c>
+      <c r="G246" s="75" t="n">
+        <v>5</v>
+      </c>
+      <c r="H246" s="74" t="n">
+        <v>51</v>
+      </c>
+      <c r="I246" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="247">
       <c r="B247" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -8860,7 +8860,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="70" t="n">
-        <v>44503.68519162324</v>
+        <v>44503.68519162037</v>
       </c>
       <c r="C246" s="71" t="n">
         <v>72</v>
@@ -8887,109 +8887,1089 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" s="5" t="n"/>
+      <c r="A247" s="69" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" s="70" t="n">
+        <v>44511.51274792824</v>
+      </c>
+      <c r="C247" s="71" t="n">
+        <v>78</v>
+      </c>
+      <c r="D247" s="72" t="inlineStr">
+        <is>
+          <t>96.05</t>
+        </is>
+      </c>
+      <c r="E247" s="73" t="n">
+        <v>398</v>
+      </c>
+      <c r="F247" s="74" t="n">
+        <v>389</v>
+      </c>
+      <c r="G247" s="75" t="n">
+        <v>9</v>
+      </c>
+      <c r="H247" s="74" t="n">
+        <v>53</v>
+      </c>
+      <c r="I247" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="248">
-      <c r="B248" s="5" t="n"/>
+      <c r="A248" s="69" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" s="70" t="n">
+        <v>44515.56589346065</v>
+      </c>
+      <c r="C248" s="71" t="n">
+        <v>82</v>
+      </c>
+      <c r="D248" s="72" t="inlineStr">
+        <is>
+          <t>96.48</t>
+        </is>
+      </c>
+      <c r="E248" s="73" t="n">
+        <v>421</v>
+      </c>
+      <c r="F248" s="74" t="n">
+        <v>411</v>
+      </c>
+      <c r="G248" s="75" t="n">
+        <v>10</v>
+      </c>
+      <c r="H248" s="74" t="n">
+        <v>57</v>
+      </c>
+      <c r="I248" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="249">
-      <c r="B249" s="5" t="n"/>
+      <c r="A249" s="69" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" s="70" t="n">
+        <v>44517.71932373843</v>
+      </c>
+      <c r="C249" s="71" t="n">
+        <v>77</v>
+      </c>
+      <c r="D249" s="72" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="E249" s="73" t="n">
+        <v>391</v>
+      </c>
+      <c r="F249" s="74" t="n">
+        <v>384</v>
+      </c>
+      <c r="G249" s="75" t="n">
+        <v>7</v>
+      </c>
+      <c r="H249" s="74" t="n">
+        <v>53</v>
+      </c>
+      <c r="I249" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="250">
-      <c r="B250" s="5" t="n"/>
+      <c r="A250" s="69" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" s="70" t="n">
+        <v>44519.4644558912</v>
+      </c>
+      <c r="C250" s="71" t="n">
+        <v>67</v>
+      </c>
+      <c r="D250" s="72" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="E250" s="73" t="n">
+        <v>357</v>
+      </c>
+      <c r="F250" s="74" t="n">
+        <v>337</v>
+      </c>
+      <c r="G250" s="75" t="n">
+        <v>20</v>
+      </c>
+      <c r="H250" s="74" t="n">
+        <v>47</v>
+      </c>
+      <c r="I250" s="75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="251">
-      <c r="B251" s="5" t="n"/>
+      <c r="A251" s="69" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" s="70" t="n">
+        <v>44519.46520854167</v>
+      </c>
+      <c r="C251" s="71" t="n">
+        <v>76</v>
+      </c>
+      <c r="D251" s="72" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="E251" s="73" t="n">
+        <v>382</v>
+      </c>
+      <c r="F251" s="74" t="n">
+        <v>382</v>
+      </c>
+      <c r="G251" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H251" s="74" t="n">
+        <v>53</v>
+      </c>
+      <c r="I251" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
-      <c r="B252" s="5" t="n"/>
+      <c r="A252" s="69" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" s="70" t="n">
+        <v>44519.46599408565</v>
+      </c>
+      <c r="C252" s="71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D252" s="72" t="inlineStr">
+        <is>
+          <t>96.11</t>
+        </is>
+      </c>
+      <c r="E252" s="73" t="n">
+        <v>346</v>
+      </c>
+      <c r="F252" s="74" t="n">
+        <v>346</v>
+      </c>
+      <c r="G252" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H252" s="74" t="n">
+        <v>46</v>
+      </c>
+      <c r="I252" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
-      <c r="B253" s="5" t="n"/>
+      <c r="A253" s="69" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" s="70" t="n">
+        <v>44522.53524550926</v>
+      </c>
+      <c r="C253" s="71" t="n">
+        <v>68</v>
+      </c>
+      <c r="D253" s="72" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="E253" s="73" t="n">
+        <v>375</v>
+      </c>
+      <c r="F253" s="74" t="n">
+        <v>341</v>
+      </c>
+      <c r="G253" s="75" t="n">
+        <v>34</v>
+      </c>
+      <c r="H253" s="74" t="n">
+        <v>46</v>
+      </c>
+      <c r="I253" s="75" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="254">
-      <c r="B254" s="5" t="n"/>
+      <c r="A254" s="69" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" s="70" t="n">
+        <v>44522.53630471065</v>
+      </c>
+      <c r="C254" s="71" t="n">
+        <v>71</v>
+      </c>
+      <c r="D254" s="72" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="E254" s="73" t="n">
+        <v>362</v>
+      </c>
+      <c r="F254" s="74" t="n">
+        <v>355</v>
+      </c>
+      <c r="G254" s="75" t="n">
+        <v>7</v>
+      </c>
+      <c r="H254" s="74" t="n">
+        <v>53</v>
+      </c>
+      <c r="I254" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
-      <c r="B255" s="5" t="n"/>
+      <c r="A255" s="69" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" s="70" t="n">
+        <v>44522.53792792824</v>
+      </c>
+      <c r="C255" s="71" t="n">
+        <v>77</v>
+      </c>
+      <c r="D255" s="72" t="inlineStr">
+        <is>
+          <t>95.56</t>
+        </is>
+      </c>
+      <c r="E255" s="73" t="n">
+        <v>401</v>
+      </c>
+      <c r="F255" s="74" t="n">
+        <v>387</v>
+      </c>
+      <c r="G255" s="75" t="n">
+        <v>14</v>
+      </c>
+      <c r="H255" s="74" t="n">
+        <v>52</v>
+      </c>
+      <c r="I255" s="75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="256">
-      <c r="B256" s="5" t="n"/>
+      <c r="A256" s="69" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" s="70" t="n">
+        <v>44523.6913862037</v>
+      </c>
+      <c r="C256" s="71" t="n">
+        <v>76</v>
+      </c>
+      <c r="D256" s="72" t="inlineStr">
+        <is>
+          <t>98.2</t>
+        </is>
+      </c>
+      <c r="E256" s="73" t="n">
+        <v>382</v>
+      </c>
+      <c r="F256" s="74" t="n">
+        <v>382</v>
+      </c>
+      <c r="G256" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H256" s="74" t="n">
+        <v>54</v>
+      </c>
+      <c r="I256" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
-      <c r="B257" s="5" t="n"/>
+      <c r="A257" s="69" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" s="70" t="n">
+        <v>44523.6927865625</v>
+      </c>
+      <c r="C257" s="71" t="n">
+        <v>76</v>
+      </c>
+      <c r="D257" s="72" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="E257" s="73" t="n">
+        <v>405</v>
+      </c>
+      <c r="F257" s="74" t="n">
+        <v>379</v>
+      </c>
+      <c r="G257" s="75" t="n">
+        <v>26</v>
+      </c>
+      <c r="H257" s="74" t="n">
+        <v>52</v>
+      </c>
+      <c r="I257" s="75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="258">
-      <c r="B258" s="5" t="n"/>
+      <c r="A258" s="69" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" s="70" t="n">
+        <v>44523.69372001157</v>
+      </c>
+      <c r="C258" s="71" t="n">
+        <v>71</v>
+      </c>
+      <c r="D258" s="72" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="E258" s="73" t="n">
+        <v>368</v>
+      </c>
+      <c r="F258" s="74" t="n">
+        <v>353</v>
+      </c>
+      <c r="G258" s="75" t="n">
+        <v>15</v>
+      </c>
+      <c r="H258" s="74" t="n">
+        <v>48</v>
+      </c>
+      <c r="I258" s="75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="259">
-      <c r="B259" s="5" t="n"/>
+      <c r="A259" s="69" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" s="70" t="n">
+        <v>44523.69758021991</v>
+      </c>
+      <c r="C259" s="71" t="n">
+        <v>74</v>
+      </c>
+      <c r="D259" s="72" t="inlineStr">
+        <is>
+          <t>95.1</t>
+        </is>
+      </c>
+      <c r="E259" s="73" t="n">
+        <v>376</v>
+      </c>
+      <c r="F259" s="74" t="n">
+        <v>369</v>
+      </c>
+      <c r="G259" s="75" t="n">
+        <v>7</v>
+      </c>
+      <c r="H259" s="74" t="n">
+        <v>56</v>
+      </c>
+      <c r="I259" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="260">
-      <c r="B260" s="5" t="n"/>
+      <c r="A260" s="69" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" s="70" t="n">
+        <v>44526.40262489583</v>
+      </c>
+      <c r="C260" s="71" t="n">
+        <v>74</v>
+      </c>
+      <c r="D260" s="72" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="E260" s="73" t="n">
+        <v>368</v>
+      </c>
+      <c r="F260" s="74" t="n">
+        <v>368</v>
+      </c>
+      <c r="G260" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H260" s="74" t="n">
+        <v>51</v>
+      </c>
+      <c r="I260" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
-      <c r="B261" s="5" t="n"/>
+      <c r="A261" s="69" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" s="70" t="n">
+        <v>44526.40426511574</v>
+      </c>
+      <c r="C261" s="71" t="n">
+        <v>83</v>
+      </c>
+      <c r="D261" s="72" t="inlineStr">
+        <is>
+          <t>96.05</t>
+        </is>
+      </c>
+      <c r="E261" s="73" t="n">
+        <v>426</v>
+      </c>
+      <c r="F261" s="74" t="n">
+        <v>413</v>
+      </c>
+      <c r="G261" s="75" t="n">
+        <v>13</v>
+      </c>
+      <c r="H261" s="74" t="n">
+        <v>54</v>
+      </c>
+      <c r="I261" s="75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="262">
-      <c r="B262" s="5" t="n"/>
+      <c r="A262" s="69" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" s="70" t="n">
+        <v>44526.40581282407</v>
+      </c>
+      <c r="C262" s="71" t="n">
+        <v>73</v>
+      </c>
+      <c r="D262" s="72" t="inlineStr">
+        <is>
+          <t>91.5</t>
+        </is>
+      </c>
+      <c r="E262" s="73" t="n">
+        <v>395</v>
+      </c>
+      <c r="F262" s="74" t="n">
+        <v>366</v>
+      </c>
+      <c r="G262" s="75" t="n">
+        <v>29</v>
+      </c>
+      <c r="H262" s="74" t="n">
+        <v>49</v>
+      </c>
+      <c r="I262" s="75" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="263">
-      <c r="B263" s="5" t="n"/>
+      <c r="A263" s="69" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" s="70" t="n">
+        <v>44529.68288987268</v>
+      </c>
+      <c r="C263" s="71" t="n">
+        <v>68</v>
+      </c>
+      <c r="D263" s="72" t="inlineStr">
+        <is>
+          <t>88.6</t>
+        </is>
+      </c>
+      <c r="E263" s="73" t="n">
+        <v>371</v>
+      </c>
+      <c r="F263" s="74" t="n">
+        <v>342</v>
+      </c>
+      <c r="G263" s="75" t="n">
+        <v>29</v>
+      </c>
+      <c r="H263" s="74" t="n">
+        <v>45</v>
+      </c>
+      <c r="I263" s="75" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="264">
-      <c r="B264" s="5" t="n"/>
+      <c r="A264" s="69" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" s="70" t="n">
+        <v>44529.68367783564</v>
+      </c>
+      <c r="C264" s="71" t="n">
+        <v>79</v>
+      </c>
+      <c r="D264" s="72" t="inlineStr">
+        <is>
+          <t>94.5</t>
+        </is>
+      </c>
+      <c r="E264" s="73" t="n">
+        <v>411</v>
+      </c>
+      <c r="F264" s="74" t="n">
+        <v>395</v>
+      </c>
+      <c r="G264" s="75" t="n">
+        <v>16</v>
+      </c>
+      <c r="H264" s="74" t="n">
+        <v>57</v>
+      </c>
+      <c r="I264" s="75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="265">
-      <c r="B265" s="5" t="n"/>
+      <c r="A265" s="69" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" s="70" t="n">
+        <v>44529.68447078704</v>
+      </c>
+      <c r="C265" s="71" t="n">
+        <v>81</v>
+      </c>
+      <c r="D265" s="72" t="inlineStr">
+        <is>
+          <t>96.9</t>
+        </is>
+      </c>
+      <c r="E265" s="73" t="n">
+        <v>414</v>
+      </c>
+      <c r="F265" s="74" t="n">
+        <v>407</v>
+      </c>
+      <c r="G265" s="75" t="n">
+        <v>7</v>
+      </c>
+      <c r="H265" s="74" t="n">
+        <v>57</v>
+      </c>
+      <c r="I265" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="266">
-      <c r="B266" s="5" t="n"/>
+      <c r="A266" s="69" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" s="70" t="n">
+        <v>44529.68553372685</v>
+      </c>
+      <c r="C266" s="71" t="n">
+        <v>79</v>
+      </c>
+      <c r="D266" s="72" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="E266" s="73" t="n">
+        <v>398</v>
+      </c>
+      <c r="F266" s="74" t="n">
+        <v>394</v>
+      </c>
+      <c r="G266" s="75" t="n">
+        <v>4</v>
+      </c>
+      <c r="H266" s="74" t="n">
+        <v>53</v>
+      </c>
+      <c r="I266" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="267">
-      <c r="B267" s="5" t="n"/>
+      <c r="A267" s="69" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" s="70" t="n">
+        <v>44531.51940063657</v>
+      </c>
+      <c r="C267" s="71" t="n">
+        <v>76</v>
+      </c>
+      <c r="D267" s="72" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="E267" s="73" t="n">
+        <v>396</v>
+      </c>
+      <c r="F267" s="74" t="n">
+        <v>381</v>
+      </c>
+      <c r="G267" s="75" t="n">
+        <v>15</v>
+      </c>
+      <c r="H267" s="74" t="n">
+        <v>48</v>
+      </c>
+      <c r="I267" s="75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="268">
-      <c r="B268" s="5" t="n"/>
+      <c r="A268" s="69" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" s="70" t="n">
+        <v>44538.53557773148</v>
+      </c>
+      <c r="C268" s="71" t="n">
+        <v>74</v>
+      </c>
+      <c r="D268" s="72" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="E268" s="73" t="n">
+        <v>393</v>
+      </c>
+      <c r="F268" s="74" t="n">
+        <v>371</v>
+      </c>
+      <c r="G268" s="75" t="n">
+        <v>22</v>
+      </c>
+      <c r="H268" s="74" t="n">
+        <v>49</v>
+      </c>
+      <c r="I268" s="75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="269">
-      <c r="B269" s="5" t="n"/>
+      <c r="A269" s="69" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" s="70" t="n">
+        <v>44538.53750008102</v>
+      </c>
+      <c r="C269" s="71" t="n">
+        <v>76</v>
+      </c>
+      <c r="D269" s="72" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="E269" s="73" t="n">
+        <v>388</v>
+      </c>
+      <c r="F269" s="74" t="n">
+        <v>382</v>
+      </c>
+      <c r="G269" s="75" t="n">
+        <v>6</v>
+      </c>
+      <c r="H269" s="74" t="n">
+        <v>52</v>
+      </c>
+      <c r="I269" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="270">
-      <c r="B270" s="5" t="n"/>
+      <c r="A270" s="69" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" s="70" t="n">
+        <v>44538.53843518518</v>
+      </c>
+      <c r="C270" s="71" t="n">
+        <v>84</v>
+      </c>
+      <c r="D270" s="72" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="E270" s="73" t="n">
+        <v>443</v>
+      </c>
+      <c r="F270" s="74" t="n">
+        <v>419</v>
+      </c>
+      <c r="G270" s="75" t="n">
+        <v>24</v>
+      </c>
+      <c r="H270" s="74" t="n">
+        <v>60</v>
+      </c>
+      <c r="I270" s="75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="271">
-      <c r="B271" s="5" t="n"/>
+      <c r="A271" s="69" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" s="70" t="n">
+        <v>44539.41822783565</v>
+      </c>
+      <c r="C271" s="71" t="n">
+        <v>75</v>
+      </c>
+      <c r="D271" s="72" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="E271" s="73" t="n">
+        <v>391</v>
+      </c>
+      <c r="F271" s="74" t="n">
+        <v>377</v>
+      </c>
+      <c r="G271" s="75" t="n">
+        <v>14</v>
+      </c>
+      <c r="H271" s="74" t="n">
+        <v>54</v>
+      </c>
+      <c r="I271" s="75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="272">
-      <c r="B272" s="5" t="n"/>
+      <c r="A272" s="69" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" s="70" t="n">
+        <v>44539.56732179398</v>
+      </c>
+      <c r="C272" s="71" t="n">
+        <v>78</v>
+      </c>
+      <c r="D272" s="72" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="E272" s="73" t="n">
+        <v>411</v>
+      </c>
+      <c r="F272" s="74" t="n">
+        <v>388</v>
+      </c>
+      <c r="G272" s="75" t="n">
+        <v>23</v>
+      </c>
+      <c r="H272" s="74" t="n">
+        <v>55</v>
+      </c>
+      <c r="I272" s="75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="273">
-      <c r="B273" s="5" t="n"/>
+      <c r="A273" s="69" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" s="70" t="n">
+        <v>44543.5055310301</v>
+      </c>
+      <c r="C273" s="71" t="n">
+        <v>70</v>
+      </c>
+      <c r="D273" s="72" t="inlineStr">
+        <is>
+          <t>93.1</t>
+        </is>
+      </c>
+      <c r="E273" s="73" t="n">
+        <v>358</v>
+      </c>
+      <c r="F273" s="74" t="n">
+        <v>351</v>
+      </c>
+      <c r="G273" s="75" t="n">
+        <v>7</v>
+      </c>
+      <c r="H273" s="74" t="n">
+        <v>52</v>
+      </c>
+      <c r="I273" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="274">
-      <c r="B274" s="5" t="n"/>
+      <c r="A274" s="69" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" s="70" t="n">
+        <v>44543.51116302083</v>
+      </c>
+      <c r="C274" s="71" t="n">
+        <v>82</v>
+      </c>
+      <c r="D274" s="72" t="inlineStr">
+        <is>
+          <t>96.04</t>
+        </is>
+      </c>
+      <c r="E274" s="73" t="n">
+        <v>424</v>
+      </c>
+      <c r="F274" s="74" t="n">
+        <v>412</v>
+      </c>
+      <c r="G274" s="75" t="n">
+        <v>12</v>
+      </c>
+      <c r="H274" s="74" t="n">
+        <v>57</v>
+      </c>
+      <c r="I274" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="275">
-      <c r="B275" s="5" t="n"/>
+      <c r="A275" s="69" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" s="70" t="n">
+        <v>44543.51307186342</v>
+      </c>
+      <c r="C275" s="71" t="n">
+        <v>68</v>
+      </c>
+      <c r="D275" s="72" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="E275" s="73" t="n">
+        <v>379</v>
+      </c>
+      <c r="F275" s="74" t="n">
+        <v>340</v>
+      </c>
+      <c r="G275" s="75" t="n">
+        <v>39</v>
+      </c>
+      <c r="H275" s="74" t="n">
+        <v>47</v>
+      </c>
+      <c r="I275" s="75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="276">
-      <c r="B276" s="5" t="n"/>
+      <c r="A276" s="69" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" s="70" t="n">
+        <v>44543.51389138889</v>
+      </c>
+      <c r="C276" s="71" t="n">
+        <v>77</v>
+      </c>
+      <c r="D276" s="72" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="E276" s="73" t="n">
+        <v>402</v>
+      </c>
+      <c r="F276" s="74" t="n">
+        <v>386</v>
+      </c>
+      <c r="G276" s="75" t="n">
+        <v>16</v>
+      </c>
+      <c r="H276" s="74" t="n">
+        <v>55</v>
+      </c>
+      <c r="I276" s="75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="277">
-      <c r="B277" s="5" t="n"/>
+      <c r="A277" s="69" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" s="70" t="n">
+        <v>44572.43762675926</v>
+      </c>
+      <c r="C277" s="71" t="n">
+        <v>73</v>
+      </c>
+      <c r="D277" s="72" t="inlineStr">
+        <is>
+          <t>94.3</t>
+        </is>
+      </c>
+      <c r="E277" s="73" t="n">
+        <v>372</v>
+      </c>
+      <c r="F277" s="74" t="n">
+        <v>364</v>
+      </c>
+      <c r="G277" s="75" t="n">
+        <v>8</v>
+      </c>
+      <c r="H277" s="74" t="n">
+        <v>49</v>
+      </c>
+      <c r="I277" s="75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="278">
-      <c r="B278" s="5" t="n"/>
+      <c r="A278" s="69" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" s="70" t="n">
+        <v>44572.46692445602</v>
+      </c>
+      <c r="C278" s="71" t="n">
+        <v>72</v>
+      </c>
+      <c r="D278" s="72" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="E278" s="73" t="n">
+        <v>385</v>
+      </c>
+      <c r="F278" s="74" t="n">
+        <v>362</v>
+      </c>
+      <c r="G278" s="75" t="n">
+        <v>23</v>
+      </c>
+      <c r="H278" s="74" t="n">
+        <v>51</v>
+      </c>
+      <c r="I278" s="75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="279">
-      <c r="B279" s="5" t="n"/>
+      <c r="A279" s="69" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" s="70" t="n">
+        <v>44572.46776936343</v>
+      </c>
+      <c r="C279" s="71" t="n">
+        <v>82</v>
+      </c>
+      <c r="D279" s="72" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="E279" s="73" t="n">
+        <v>410</v>
+      </c>
+      <c r="F279" s="74" t="n">
+        <v>410</v>
+      </c>
+      <c r="G279" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H279" s="74" t="n">
+        <v>59</v>
+      </c>
+      <c r="I279" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
-      <c r="B280" s="5" t="n"/>
+      <c r="A280" s="69" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" s="70" t="n">
+        <v>44572.47360372685</v>
+      </c>
+      <c r="C280" s="71" t="n">
+        <v>80</v>
+      </c>
+      <c r="D280" s="72" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="E280" s="73" t="n">
+        <v>416</v>
+      </c>
+      <c r="F280" s="74" t="n">
+        <v>398</v>
+      </c>
+      <c r="G280" s="75" t="n">
+        <v>18</v>
+      </c>
+      <c r="H280" s="74" t="n">
+        <v>55</v>
+      </c>
+      <c r="I280" s="75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="281">
-      <c r="B281" s="5" t="n"/>
+      <c r="A281" s="69" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" s="70" t="n">
+        <v>44578.64101636007</v>
+      </c>
+      <c r="C281" s="71" t="n">
+        <v>79</v>
+      </c>
+      <c r="D281" s="72" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="E281" s="73" t="n">
+        <v>419</v>
+      </c>
+      <c r="F281" s="74" t="n">
+        <v>397</v>
+      </c>
+      <c r="G281" s="75" t="n">
+        <v>22</v>
+      </c>
+      <c r="H281" s="74" t="n">
+        <v>53</v>
+      </c>
+      <c r="I281" s="75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="282">
       <c r="B282" s="5" t="n"/>

--- a/Projects/WPMTracker/hWPM.xlsx
+++ b/Projects/WPMTracker/hWPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -9945,7 +9945,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="70" t="n">
-        <v>44578.64101636007</v>
+        <v>44578.64101636574</v>
       </c>
       <c r="C281" s="71" t="n">
         <v>79</v>
@@ -9972,13 +9972,97 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" s="5" t="n"/>
+      <c r="A282" s="69" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" s="70" t="n">
+        <v>44594.62672607639</v>
+      </c>
+      <c r="C282" s="71" t="n">
+        <v>82</v>
+      </c>
+      <c r="D282" s="72" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="E282" s="73" t="n">
+        <v>421</v>
+      </c>
+      <c r="F282" s="74" t="n">
+        <v>410</v>
+      </c>
+      <c r="G282" s="75" t="n">
+        <v>11</v>
+      </c>
+      <c r="H282" s="74" t="n">
+        <v>60</v>
+      </c>
+      <c r="I282" s="75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="283">
-      <c r="B283" s="5" t="n"/>
+      <c r="A283" s="69" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" s="70" t="n">
+        <v>44594.62814613426</v>
+      </c>
+      <c r="C283" s="71" t="n">
+        <v>76</v>
+      </c>
+      <c r="D283" s="72" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="E283" s="73" t="n">
+        <v>397</v>
+      </c>
+      <c r="F283" s="74" t="n">
+        <v>378</v>
+      </c>
+      <c r="G283" s="75" t="n">
+        <v>19</v>
+      </c>
+      <c r="H283" s="74" t="n">
+        <v>49</v>
+      </c>
+      <c r="I283" s="75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="284">
-      <c r="B284" s="5" t="n"/>
+      <c r="A284" s="69" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" s="70" t="n">
+        <v>44594.62889959387</v>
+      </c>
+      <c r="C284" s="71" t="n">
+        <v>76</v>
+      </c>
+      <c r="D284" s="72" t="inlineStr">
+        <is>
+          <t>97.2</t>
+        </is>
+      </c>
+      <c r="E284" s="73" t="n">
+        <v>382</v>
+      </c>
+      <c r="F284" s="74" t="n">
+        <v>382</v>
+      </c>
+      <c r="G284" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H284" s="74" t="n">
+        <v>50</v>
+      </c>
+      <c r="I284" s="75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="B285" s="5" t="n"/>
